--- a/config_11.24/shoping_config_cjj.xlsx
+++ b/config_11.24/shoping_config_cjj.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3903" uniqueCount="1741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3903" uniqueCount="1750">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5067,10 +5067,6 @@
     <t>VIP4礼包</t>
   </si>
   <si>
-    <t>VIP1礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>VIP5礼包</t>
   </si>
   <si>
@@ -5092,81 +5088,7 @@
     <t>"50万金币",</t>
   </si>
   <si>
-    <t>"75万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"318万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"538万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1108万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2218万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"3288万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4388万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"5488万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"6488万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"7688万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_3d_fish_summon_fish","prop_3d_fish_lock",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>750000,1,1,</t>
-  </si>
-  <si>
-    <t>3180000,5,5,</t>
-  </si>
-  <si>
-    <t>22180000,40,40,</t>
-  </si>
-  <si>
-    <t>32880000,68,60,</t>
-  </si>
-  <si>
-    <t>54880000,110,100,</t>
-  </si>
-  <si>
-    <t>64880000,148,100,</t>
-  </si>
-  <si>
-    <t>76880000,158,100,</t>
-  </si>
-  <si>
-    <t>5380000,10,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>11080000,20,20,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>43880000,88,80,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>9999999999,1,0</t>
@@ -5453,10 +5375,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","prop_3d_fish_summon_fish","prop_3d_fish_lock",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>600000,1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7515,6 +7433,130 @@
   </si>
   <si>
     <t>{last=10381,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP1礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"75万金币","水滴*1","玩具锤*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"318万金币","水滴*2","玩具锤*2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3180000,2,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"538万金币","水滴*3","玩具锤*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5380000,3,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1108万金币","水滴*4","玩具锤*4",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>11080000,4,4,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2218万金币","水滴*5","玩具锤*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>22180000,5,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3288万金币","水滴*6","玩具锤*6",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>32880000,6,6,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4388万金币","水滴*7","玩具锤*7",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>43880000,7,7,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5488万金币","水滴*8","玩具锤*8",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>54880000,8,8,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"6488万金币","水滴*10","玩具锤*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>64880000,10,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"7688万金币","水滴*20","玩具锤*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>76880000,20,20,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8488,10 +8530,10 @@
         <v>16</v>
       </c>
       <c r="F1" s="59" t="s">
-        <v>1515</v>
+        <v>1493</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1348</v>
+        <v>1326</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>18</v>
@@ -8509,7 +8551,7 @@
         <v>22</v>
       </c>
       <c r="M1" s="45" t="s">
-        <v>1478</v>
+        <v>1456</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>24</v>
@@ -8607,7 +8649,7 @@
         <v>46</v>
       </c>
       <c r="M2" s="58" t="s">
-        <v>1473</v>
+        <v>1451</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>9</v>
@@ -8690,7 +8732,7 @@
         <v>46</v>
       </c>
       <c r="M3" s="58" t="s">
-        <v>1474</v>
+        <v>1452</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>9</v>
@@ -8773,7 +8815,7 @@
         <v>46</v>
       </c>
       <c r="M4" s="58" t="s">
-        <v>1474</v>
+        <v>1452</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>9</v>
@@ -9272,7 +9314,7 @@
         <v>46</v>
       </c>
       <c r="M10" s="58" t="s">
-        <v>1475</v>
+        <v>1453</v>
       </c>
       <c r="N10" s="11" t="s">
         <v>9</v>
@@ -9601,7 +9643,7 @@
         <v>46</v>
       </c>
       <c r="M14" s="58" t="s">
-        <v>1475</v>
+        <v>1453</v>
       </c>
       <c r="N14" s="11" t="s">
         <v>9</v>
@@ -9763,7 +9805,7 @@
         <v>46</v>
       </c>
       <c r="M16" s="58" t="s">
-        <v>1476</v>
+        <v>1454</v>
       </c>
       <c r="N16" s="11" t="s">
         <v>9</v>
@@ -9982,7 +10024,7 @@
         <v>46</v>
       </c>
       <c r="M19" s="58" t="s">
-        <v>1475</v>
+        <v>1453</v>
       </c>
       <c r="N19" s="11" t="s">
         <v>11</v>
@@ -10128,7 +10170,7 @@
         <v>46</v>
       </c>
       <c r="M21" s="58" t="s">
-        <v>1477</v>
+        <v>1455</v>
       </c>
       <c r="N21" s="11" t="s">
         <v>11</v>
@@ -10274,7 +10316,7 @@
         <v>46</v>
       </c>
       <c r="M23" s="58" t="s">
-        <v>1475</v>
+        <v>1453</v>
       </c>
       <c r="N23" s="11" t="s">
         <v>11</v>
@@ -10352,13 +10394,13 @@
         <v>45</v>
       </c>
       <c r="K24" s="34" t="s">
-        <v>1160</v>
+        <v>1139</v>
       </c>
       <c r="L24" s="11" t="s">
         <v>46</v>
       </c>
       <c r="M24" s="58" t="s">
-        <v>1475</v>
+        <v>1453</v>
       </c>
       <c r="N24" s="11" t="s">
         <v>9</v>
@@ -10418,11 +10460,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM475"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="V374" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="V320" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z392" sqref="Z392"/>
+      <selection pane="bottomRight" activeCell="A328" sqref="A328:XFD337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -10487,7 +10529,7 @@
         <v>506</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1286</v>
+        <v>1264</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>95</v>
@@ -10817,7 +10859,7 @@
         <v>122</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>1171</v>
+        <v>1150</v>
       </c>
       <c r="AG5" s="5">
         <v>1</v>
@@ -14237,7 +14279,7 @@
         <v>90</v>
       </c>
       <c r="Q67" s="40" t="s">
-        <v>1509</v>
+        <v>1487</v>
       </c>
       <c r="V67" s="19" t="s">
         <v>550</v>
@@ -14293,7 +14335,7 @@
         <v>90</v>
       </c>
       <c r="Q68" s="40" t="s">
-        <v>1510</v>
+        <v>1488</v>
       </c>
       <c r="V68" s="19" t="s">
         <v>550</v>
@@ -14461,7 +14503,7 @@
         <v>90</v>
       </c>
       <c r="Q71" s="40" t="s">
-        <v>1511</v>
+        <v>1489</v>
       </c>
       <c r="V71" s="19" t="s">
         <v>550</v>
@@ -14795,7 +14837,7 @@
         <v>248</v>
       </c>
       <c r="I77" s="19" t="s">
-        <v>1505</v>
+        <v>1483</v>
       </c>
       <c r="K77" s="19">
         <v>-20</v>
@@ -14813,10 +14855,10 @@
         <v>100</v>
       </c>
       <c r="P77" s="19" t="s">
-        <v>1442</v>
+        <v>1420</v>
       </c>
       <c r="Q77" s="40" t="s">
-        <v>1506</v>
+        <v>1484</v>
       </c>
       <c r="V77" s="19" t="s">
         <v>550</v>
@@ -14851,7 +14893,7 @@
         <v>249</v>
       </c>
       <c r="I78" s="19" t="s">
-        <v>1504</v>
+        <v>1482</v>
       </c>
       <c r="K78" s="19">
         <v>-20</v>
@@ -14872,7 +14914,7 @@
         <v>505</v>
       </c>
       <c r="Q78" s="40" t="s">
-        <v>1360</v>
+        <v>1338</v>
       </c>
       <c r="V78" s="19" t="s">
         <v>550</v>
@@ -15185,7 +15227,7 @@
         <v>4800</v>
       </c>
       <c r="P83" s="5" t="s">
-        <v>1191</v>
+        <v>1170</v>
       </c>
       <c r="Q83" s="10" t="s">
         <v>737</v>
@@ -15297,10 +15339,10 @@
         <v>4800</v>
       </c>
       <c r="P85" s="5" t="s">
-        <v>1192</v>
+        <v>1171</v>
       </c>
       <c r="Q85" s="10" t="s">
-        <v>1193</v>
+        <v>1172</v>
       </c>
       <c r="V85" s="5" t="s">
         <v>552</v>
@@ -15404,10 +15446,10 @@
         <v>9600</v>
       </c>
       <c r="P87" s="5" t="s">
-        <v>1192</v>
+        <v>1171</v>
       </c>
       <c r="Q87" s="10" t="s">
-        <v>1194</v>
+        <v>1173</v>
       </c>
       <c r="V87" s="5" t="s">
         <v>552</v>
@@ -17830,7 +17872,7 @@
         <v>90</v>
       </c>
       <c r="Q128" s="40" t="s">
-        <v>1512</v>
+        <v>1490</v>
       </c>
       <c r="V128" s="19" t="s">
         <v>550</v>
@@ -17886,7 +17928,7 @@
         <v>90</v>
       </c>
       <c r="Q129" s="40" t="s">
-        <v>1513</v>
+        <v>1491</v>
       </c>
       <c r="V129" s="19" t="s">
         <v>550</v>
@@ -20288,7 +20330,7 @@
         <v>372</v>
       </c>
       <c r="I168" s="19" t="s">
-        <v>1161</v>
+        <v>1140</v>
       </c>
       <c r="K168" s="19">
         <v>-28</v>
@@ -20306,10 +20348,10 @@
         <v>600</v>
       </c>
       <c r="P168" s="19" t="s">
-        <v>1164</v>
+        <v>1143</v>
       </c>
       <c r="Q168" s="40" t="s">
-        <v>1165</v>
+        <v>1144</v>
       </c>
       <c r="V168" s="19" t="s">
         <v>550</v>
@@ -20353,7 +20395,7 @@
         <v>483</v>
       </c>
       <c r="I169" s="19" t="s">
-        <v>1162</v>
+        <v>1141</v>
       </c>
       <c r="K169" s="19">
         <v>-28</v>
@@ -20371,10 +20413,10 @@
         <v>3000</v>
       </c>
       <c r="P169" s="19" t="s">
-        <v>1164</v>
+        <v>1143</v>
       </c>
       <c r="Q169" s="40" t="s">
-        <v>1166</v>
+        <v>1145</v>
       </c>
       <c r="V169" s="19" t="s">
         <v>629</v>
@@ -20415,7 +20457,7 @@
         <v>373</v>
       </c>
       <c r="I170" s="19" t="s">
-        <v>1163</v>
+        <v>1142</v>
       </c>
       <c r="K170" s="19">
         <v>-28</v>
@@ -20433,10 +20475,10 @@
         <v>19800</v>
       </c>
       <c r="P170" s="19" t="s">
-        <v>1164</v>
+        <v>1143</v>
       </c>
       <c r="Q170" s="40" t="s">
-        <v>1167</v>
+        <v>1146</v>
       </c>
       <c r="V170" s="19" t="s">
         <v>629</v>
@@ -20474,10 +20516,10 @@
         <v>1</v>
       </c>
       <c r="G171" s="19" t="s">
-        <v>1298</v>
+        <v>1276</v>
       </c>
       <c r="H171" s="19" t="s">
-        <v>1299</v>
+        <v>1277</v>
       </c>
       <c r="I171" s="19" t="s">
         <v>1085</v>
@@ -20542,10 +20584,10 @@
         <v>1</v>
       </c>
       <c r="G172" s="19" t="s">
-        <v>1300</v>
+        <v>1278</v>
       </c>
       <c r="H172" s="19" t="s">
-        <v>1301</v>
+        <v>1279</v>
       </c>
       <c r="I172" s="19" t="s">
         <v>1086</v>
@@ -20610,10 +20652,10 @@
         <v>1</v>
       </c>
       <c r="G173" s="19" t="s">
-        <v>1298</v>
+        <v>1276</v>
       </c>
       <c r="H173" s="19" t="s">
-        <v>1302</v>
+        <v>1280</v>
       </c>
       <c r="I173" s="19" t="s">
         <v>1087</v>
@@ -20678,10 +20720,10 @@
         <v>1</v>
       </c>
       <c r="G174" s="19" t="s">
-        <v>1303</v>
+        <v>1281</v>
       </c>
       <c r="H174" s="19" t="s">
-        <v>1304</v>
+        <v>1282</v>
       </c>
       <c r="I174" s="19" t="s">
         <v>1088</v>
@@ -20746,10 +20788,10 @@
         <v>1</v>
       </c>
       <c r="G175" s="19" t="s">
-        <v>1300</v>
+        <v>1278</v>
       </c>
       <c r="H175" s="19" t="s">
-        <v>1305</v>
+        <v>1283</v>
       </c>
       <c r="I175" s="19" t="s">
         <v>1099</v>
@@ -20814,10 +20856,10 @@
         <v>1</v>
       </c>
       <c r="G176" s="19" t="s">
-        <v>1300</v>
+        <v>1278</v>
       </c>
       <c r="H176" s="19" t="s">
-        <v>1306</v>
+        <v>1284</v>
       </c>
       <c r="I176" s="19" t="s">
         <v>1100</v>
@@ -20882,10 +20924,10 @@
         <v>1</v>
       </c>
       <c r="G177" s="19" t="s">
-        <v>1300</v>
+        <v>1278</v>
       </c>
       <c r="H177" s="19" t="s">
-        <v>1307</v>
+        <v>1285</v>
       </c>
       <c r="I177" s="19" t="s">
         <v>1101</v>
@@ -20906,7 +20948,7 @@
         <v>1800</v>
       </c>
       <c r="P177" s="19" t="s">
-        <v>1433</v>
+        <v>1411</v>
       </c>
       <c r="Q177" s="40" t="s">
         <v>776</v>
@@ -20950,10 +20992,10 @@
         <v>1</v>
       </c>
       <c r="G178" s="19" t="s">
-        <v>1300</v>
+        <v>1278</v>
       </c>
       <c r="H178" s="19" t="s">
-        <v>1308</v>
+        <v>1286</v>
       </c>
       <c r="I178" s="19" t="s">
         <v>1102</v>
@@ -21018,10 +21060,10 @@
         <v>1</v>
       </c>
       <c r="G179" s="19" t="s">
-        <v>1300</v>
+        <v>1278</v>
       </c>
       <c r="H179" s="19" t="s">
-        <v>1309</v>
+        <v>1287</v>
       </c>
       <c r="I179" s="19" t="s">
         <v>1103</v>
@@ -21086,10 +21128,10 @@
         <v>1</v>
       </c>
       <c r="G180" s="19" t="s">
-        <v>1310</v>
+        <v>1288</v>
       </c>
       <c r="H180" s="19" t="s">
-        <v>1311</v>
+        <v>1289</v>
       </c>
       <c r="I180" s="19" t="s">
         <v>1093</v>
@@ -21154,10 +21196,10 @@
         <v>1</v>
       </c>
       <c r="G181" s="19" t="s">
-        <v>1300</v>
+        <v>1278</v>
       </c>
       <c r="H181" s="19" t="s">
-        <v>1312</v>
+        <v>1290</v>
       </c>
       <c r="I181" s="19" t="s">
         <v>1104</v>
@@ -21222,10 +21264,10 @@
         <v>1</v>
       </c>
       <c r="G182" s="19" t="s">
-        <v>1300</v>
+        <v>1278</v>
       </c>
       <c r="H182" s="19" t="s">
-        <v>1313</v>
+        <v>1291</v>
       </c>
       <c r="I182" s="19" t="s">
         <v>1105</v>
@@ -21290,10 +21332,10 @@
         <v>1</v>
       </c>
       <c r="G183" s="19" t="s">
-        <v>1300</v>
+        <v>1278</v>
       </c>
       <c r="H183" s="19" t="s">
-        <v>1314</v>
+        <v>1292</v>
       </c>
       <c r="I183" s="19" t="s">
         <v>1106</v>
@@ -21358,10 +21400,10 @@
         <v>1</v>
       </c>
       <c r="G184" s="19" t="s">
-        <v>1300</v>
+        <v>1278</v>
       </c>
       <c r="H184" s="19" t="s">
-        <v>1315</v>
+        <v>1293</v>
       </c>
       <c r="I184" s="19" t="s">
         <v>1105</v>
@@ -21426,10 +21468,10 @@
         <v>1</v>
       </c>
       <c r="G185" s="19" t="s">
-        <v>1316</v>
+        <v>1294</v>
       </c>
       <c r="H185" s="19" t="s">
-        <v>1317</v>
+        <v>1295</v>
       </c>
       <c r="I185" s="19" t="s">
         <v>1107</v>
@@ -25738,7 +25780,7 @@
         <v>600</v>
       </c>
       <c r="P251" s="5" t="s">
-        <v>1182</v>
+        <v>1161</v>
       </c>
       <c r="Q251" s="10" t="s">
         <v>832</v>
@@ -25868,7 +25910,7 @@
         <v>100</v>
       </c>
       <c r="P253" s="5" t="s">
-        <v>1442</v>
+        <v>1420</v>
       </c>
       <c r="Q253" s="10" t="s">
         <v>833</v>
@@ -27171,7 +27213,7 @@
         <v>90</v>
       </c>
       <c r="Q273" s="10" t="s">
-        <v>1514</v>
+        <v>1492</v>
       </c>
       <c r="V273" s="5" t="s">
         <v>550</v>
@@ -30061,7 +30103,7 @@
         <v>651</v>
       </c>
       <c r="Q319" s="10" t="s">
-        <v>1196</v>
+        <v>1175</v>
       </c>
       <c r="V319" s="5" t="s">
         <v>552</v>
@@ -30096,7 +30138,7 @@
         <v>650</v>
       </c>
       <c r="I320" s="5" t="s">
-        <v>1195</v>
+        <v>1174</v>
       </c>
       <c r="K320" s="5">
         <v>-25</v>
@@ -30309,7 +30351,7 @@
       <c r="T323" s="19"/>
       <c r="U323" s="19"/>
       <c r="V323" s="19" t="s">
-        <v>1254</v>
+        <v>1232</v>
       </c>
       <c r="W323" s="19">
         <v>9999999</v>
@@ -30544,7 +30586,7 @@
       </c>
       <c r="Q326" s="42"/>
       <c r="V326" s="41" t="s">
-        <v>1156</v>
+        <v>1135</v>
       </c>
       <c r="W326" s="41">
         <v>9999999</v>
@@ -30585,7 +30627,7 @@
         <v>1120</v>
       </c>
       <c r="I327" s="44" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="K327" s="44">
         <v>-31</v>
@@ -30606,7 +30648,7 @@
         <v>1122</v>
       </c>
       <c r="Q327" s="48" t="s">
-        <v>1158</v>
+        <v>1137</v>
       </c>
       <c r="V327" s="44" t="s">
         <v>1123</v>
@@ -30647,11 +30689,11 @@
         <v>1</v>
       </c>
       <c r="G328" s="44" t="s">
-        <v>1127</v>
+        <v>1719</v>
       </c>
       <c r="H328" s="44"/>
       <c r="I328" s="44" t="s">
-        <v>1135</v>
+        <v>1720</v>
       </c>
       <c r="J328" s="44"/>
       <c r="K328" s="44">
@@ -30664,23 +30706,23 @@
         <v>0</v>
       </c>
       <c r="N328" s="44" t="s">
-        <v>1111</v>
+        <v>1721</v>
       </c>
       <c r="O328" s="44">
         <v>600</v>
       </c>
       <c r="P328" s="44" t="s">
-        <v>1221</v>
+        <v>1722</v>
       </c>
       <c r="Q328" s="48" t="s">
-        <v>1146</v>
+        <v>1134</v>
       </c>
       <c r="R328" s="44"/>
       <c r="S328" s="44"/>
       <c r="T328" s="44"/>
       <c r="U328" s="44"/>
       <c r="V328" s="44" t="s">
-        <v>1156</v>
+        <v>1723</v>
       </c>
       <c r="W328" s="44">
         <v>99999999</v>
@@ -30733,7 +30775,7 @@
       </c>
       <c r="H329" s="44"/>
       <c r="I329" s="44" t="s">
-        <v>1136</v>
+        <v>1724</v>
       </c>
       <c r="J329" s="44"/>
       <c r="K329" s="44">
@@ -30746,23 +30788,23 @@
         <v>0</v>
       </c>
       <c r="N329" s="44" t="s">
-        <v>1111</v>
+        <v>1721</v>
       </c>
       <c r="O329" s="44">
         <v>2800</v>
       </c>
       <c r="P329" s="44" t="s">
-        <v>1145</v>
+        <v>1725</v>
       </c>
       <c r="Q329" s="48" t="s">
-        <v>1147</v>
+        <v>1726</v>
       </c>
       <c r="R329" s="44"/>
       <c r="S329" s="44"/>
       <c r="T329" s="44"/>
       <c r="U329" s="44"/>
       <c r="V329" s="44" t="s">
-        <v>1156</v>
+        <v>1727</v>
       </c>
       <c r="W329" s="44">
         <v>99999999</v>
@@ -30815,7 +30857,7 @@
       </c>
       <c r="H330" s="44"/>
       <c r="I330" s="44" t="s">
-        <v>1137</v>
+        <v>1728</v>
       </c>
       <c r="J330" s="44"/>
       <c r="K330" s="44">
@@ -30828,23 +30870,23 @@
         <v>0</v>
       </c>
       <c r="N330" s="44" t="s">
-        <v>1111</v>
+        <v>1729</v>
       </c>
       <c r="O330" s="44">
         <v>4800</v>
       </c>
       <c r="P330" s="44" t="s">
-        <v>1145</v>
+        <v>1722</v>
       </c>
       <c r="Q330" s="48" t="s">
-        <v>1153</v>
+        <v>1730</v>
       </c>
       <c r="R330" s="44"/>
       <c r="S330" s="44"/>
       <c r="T330" s="44"/>
       <c r="U330" s="44"/>
       <c r="V330" s="44" t="s">
-        <v>1156</v>
+        <v>1727</v>
       </c>
       <c r="W330" s="44">
         <v>99999999</v>
@@ -30897,7 +30939,7 @@
       </c>
       <c r="H331" s="44"/>
       <c r="I331" s="44" t="s">
-        <v>1138</v>
+        <v>1731</v>
       </c>
       <c r="J331" s="44"/>
       <c r="K331" s="44">
@@ -30910,23 +30952,23 @@
         <v>0</v>
       </c>
       <c r="N331" s="44" t="s">
-        <v>1111</v>
+        <v>1721</v>
       </c>
       <c r="O331" s="44">
         <v>9900</v>
       </c>
       <c r="P331" s="44" t="s">
-        <v>1145</v>
+        <v>1725</v>
       </c>
       <c r="Q331" s="48" t="s">
-        <v>1154</v>
+        <v>1732</v>
       </c>
       <c r="R331" s="44"/>
       <c r="S331" s="44"/>
       <c r="T331" s="44"/>
       <c r="U331" s="44"/>
       <c r="V331" s="44" t="s">
-        <v>1156</v>
+        <v>1723</v>
       </c>
       <c r="W331" s="44">
         <v>99999999</v>
@@ -30975,11 +31017,11 @@
         <v>1</v>
       </c>
       <c r="G332" s="44" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="H332" s="44"/>
       <c r="I332" s="44" t="s">
-        <v>1139</v>
+        <v>1733</v>
       </c>
       <c r="J332" s="44"/>
       <c r="K332" s="44">
@@ -30992,23 +31034,23 @@
         <v>0</v>
       </c>
       <c r="N332" s="44" t="s">
-        <v>1111</v>
+        <v>1729</v>
       </c>
       <c r="O332" s="44">
         <v>19800</v>
       </c>
       <c r="P332" s="44" t="s">
-        <v>1145</v>
+        <v>1725</v>
       </c>
       <c r="Q332" s="48" t="s">
-        <v>1148</v>
+        <v>1734</v>
       </c>
       <c r="R332" s="44"/>
       <c r="S332" s="44"/>
       <c r="T332" s="44"/>
       <c r="U332" s="44"/>
       <c r="V332" s="44" t="s">
-        <v>1156</v>
+        <v>1723</v>
       </c>
       <c r="W332" s="44">
         <v>99999999</v>
@@ -31057,11 +31099,11 @@
         <v>1</v>
       </c>
       <c r="G333" s="44" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="H333" s="44"/>
       <c r="I333" s="44" t="s">
-        <v>1140</v>
+        <v>1735</v>
       </c>
       <c r="J333" s="44"/>
       <c r="K333" s="44">
@@ -31074,23 +31116,23 @@
         <v>0</v>
       </c>
       <c r="N333" s="44" t="s">
-        <v>1111</v>
+        <v>1721</v>
       </c>
       <c r="O333" s="44">
         <v>29800</v>
       </c>
       <c r="P333" s="44" t="s">
-        <v>1145</v>
+        <v>1725</v>
       </c>
       <c r="Q333" s="48" t="s">
-        <v>1149</v>
+        <v>1736</v>
       </c>
       <c r="R333" s="44"/>
       <c r="S333" s="44"/>
       <c r="T333" s="44"/>
       <c r="U333" s="44"/>
       <c r="V333" s="44" t="s">
-        <v>1156</v>
+        <v>1737</v>
       </c>
       <c r="W333" s="44">
         <v>99999999</v>
@@ -31139,11 +31181,11 @@
         <v>1</v>
       </c>
       <c r="G334" s="44" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="H334" s="44"/>
       <c r="I334" s="44" t="s">
-        <v>1141</v>
+        <v>1738</v>
       </c>
       <c r="J334" s="44"/>
       <c r="K334" s="44">
@@ -31156,23 +31198,23 @@
         <v>0</v>
       </c>
       <c r="N334" s="44" t="s">
-        <v>1111</v>
+        <v>1739</v>
       </c>
       <c r="O334" s="44">
         <v>39800</v>
       </c>
       <c r="P334" s="44" t="s">
-        <v>1145</v>
+        <v>1740</v>
       </c>
       <c r="Q334" s="48" t="s">
-        <v>1155</v>
+        <v>1741</v>
       </c>
       <c r="R334" s="44"/>
       <c r="S334" s="44"/>
       <c r="T334" s="44"/>
       <c r="U334" s="44"/>
       <c r="V334" s="44" t="s">
-        <v>1156</v>
+        <v>1737</v>
       </c>
       <c r="W334" s="44">
         <v>99999999</v>
@@ -31221,11 +31263,11 @@
         <v>1</v>
       </c>
       <c r="G335" s="44" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="H335" s="44"/>
       <c r="I335" s="44" t="s">
-        <v>1142</v>
+        <v>1742</v>
       </c>
       <c r="J335" s="44"/>
       <c r="K335" s="44">
@@ -31238,23 +31280,23 @@
         <v>0</v>
       </c>
       <c r="N335" s="44" t="s">
-        <v>1111</v>
+        <v>1739</v>
       </c>
       <c r="O335" s="44">
         <v>49800</v>
       </c>
       <c r="P335" s="44" t="s">
-        <v>1145</v>
+        <v>1740</v>
       </c>
       <c r="Q335" s="48" t="s">
-        <v>1150</v>
+        <v>1743</v>
       </c>
       <c r="R335" s="44"/>
       <c r="S335" s="44"/>
       <c r="T335" s="44"/>
       <c r="U335" s="44"/>
       <c r="V335" s="44" t="s">
-        <v>1156</v>
+        <v>1737</v>
       </c>
       <c r="W335" s="44">
         <v>99999999</v>
@@ -31303,11 +31345,11 @@
         <v>1</v>
       </c>
       <c r="G336" s="44" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="H336" s="44"/>
       <c r="I336" s="44" t="s">
-        <v>1143</v>
+        <v>1744</v>
       </c>
       <c r="J336" s="44"/>
       <c r="K336" s="44">
@@ -31320,23 +31362,23 @@
         <v>0</v>
       </c>
       <c r="N336" s="44" t="s">
-        <v>1111</v>
+        <v>1739</v>
       </c>
       <c r="O336" s="44">
         <v>59800</v>
       </c>
       <c r="P336" s="44" t="s">
-        <v>1145</v>
+        <v>1740</v>
       </c>
       <c r="Q336" s="48" t="s">
-        <v>1151</v>
+        <v>1745</v>
       </c>
       <c r="R336" s="44"/>
       <c r="S336" s="44"/>
       <c r="T336" s="44"/>
       <c r="U336" s="44"/>
       <c r="V336" s="44" t="s">
-        <v>1156</v>
+        <v>1746</v>
       </c>
       <c r="W336" s="44">
         <v>99999999</v>
@@ -31385,11 +31427,11 @@
         <v>1</v>
       </c>
       <c r="G337" s="44" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="H337" s="44"/>
       <c r="I337" s="44" t="s">
-        <v>1144</v>
+        <v>1747</v>
       </c>
       <c r="J337" s="44"/>
       <c r="K337" s="44">
@@ -31402,23 +31444,23 @@
         <v>0</v>
       </c>
       <c r="N337" s="44" t="s">
-        <v>1111</v>
+        <v>1739</v>
       </c>
       <c r="O337" s="44">
         <v>69800</v>
       </c>
       <c r="P337" s="44" t="s">
-        <v>1145</v>
+        <v>1748</v>
       </c>
       <c r="Q337" s="48" t="s">
-        <v>1152</v>
+        <v>1749</v>
       </c>
       <c r="R337" s="44"/>
       <c r="S337" s="44"/>
       <c r="T337" s="44"/>
       <c r="U337" s="44"/>
       <c r="V337" s="44" t="s">
-        <v>1156</v>
+        <v>1737</v>
       </c>
       <c r="W337" s="44">
         <v>99999999</v>
@@ -31464,10 +31506,10 @@
         <v>1</v>
       </c>
       <c r="G338" s="19" t="s">
-        <v>1174</v>
+        <v>1153</v>
       </c>
       <c r="I338" s="19" t="s">
-        <v>1176</v>
+        <v>1155</v>
       </c>
       <c r="K338" s="19">
         <v>-31</v>
@@ -31485,10 +31527,10 @@
         <v>19800</v>
       </c>
       <c r="P338" s="19" t="s">
-        <v>1172</v>
+        <v>1151</v>
       </c>
       <c r="Q338" s="40" t="s">
-        <v>1180</v>
+        <v>1159</v>
       </c>
       <c r="V338" s="19" t="s">
         <v>550</v>
@@ -31503,10 +31545,10 @@
         <v>2552233600</v>
       </c>
       <c r="AA338" s="19" t="s">
-        <v>1173</v>
+        <v>1152</v>
       </c>
       <c r="AB338" s="19" t="s">
-        <v>1183</v>
+        <v>1162</v>
       </c>
       <c r="AG338" s="19">
         <v>1</v>
@@ -31539,7 +31581,7 @@
       </c>
       <c r="H339" s="19"/>
       <c r="I339" s="19" t="s">
-        <v>1178</v>
+        <v>1157</v>
       </c>
       <c r="J339" s="19"/>
       <c r="K339" s="19">
@@ -31558,10 +31600,10 @@
         <v>30000</v>
       </c>
       <c r="P339" s="19" t="s">
-        <v>1172</v>
+        <v>1151</v>
       </c>
       <c r="Q339" s="40" t="s">
-        <v>1181</v>
+        <v>1160</v>
       </c>
       <c r="R339" s="19"/>
       <c r="S339" s="19"/>
@@ -31581,10 +31623,10 @@
       </c>
       <c r="Z339" s="19"/>
       <c r="AA339" s="19" t="s">
-        <v>1173</v>
+        <v>1152</v>
       </c>
       <c r="AB339" s="19" t="s">
-        <v>1184</v>
+        <v>1163</v>
       </c>
       <c r="AC339" s="19"/>
       <c r="AD339" s="19"/>
@@ -31619,11 +31661,11 @@
         <v>1</v>
       </c>
       <c r="G340" s="19" t="s">
-        <v>1175</v>
+        <v>1154</v>
       </c>
       <c r="H340" s="19"/>
       <c r="I340" s="19" t="s">
-        <v>1177</v>
+        <v>1156</v>
       </c>
       <c r="J340" s="19"/>
       <c r="K340" s="19">
@@ -31642,10 +31684,10 @@
         <v>78000</v>
       </c>
       <c r="P340" s="19" t="s">
-        <v>1172</v>
+        <v>1151</v>
       </c>
       <c r="Q340" s="40" t="s">
-        <v>1179</v>
+        <v>1158</v>
       </c>
       <c r="R340" s="19"/>
       <c r="S340" s="19"/>
@@ -31665,10 +31707,10 @@
       </c>
       <c r="Z340" s="19"/>
       <c r="AA340" s="19" t="s">
-        <v>1173</v>
+        <v>1152</v>
       </c>
       <c r="AB340" s="19" t="s">
-        <v>1185</v>
+        <v>1164</v>
       </c>
       <c r="AC340" s="19"/>
       <c r="AD340" s="19"/>
@@ -31700,11 +31742,11 @@
         <v>1</v>
       </c>
       <c r="G341" s="6" t="s">
-        <v>1197</v>
+        <v>1176</v>
       </c>
       <c r="H341" s="6"/>
       <c r="I341" s="5" t="s">
-        <v>1209</v>
+        <v>1188</v>
       </c>
       <c r="K341" s="5">
         <v>-31</v>
@@ -31725,10 +31767,10 @@
         <v>1089</v>
       </c>
       <c r="Q341" s="10" t="s">
-        <v>1222</v>
+        <v>1200</v>
       </c>
       <c r="V341" s="5" t="s">
-        <v>1254</v>
+        <v>1232</v>
       </c>
       <c r="W341" s="5">
         <v>9999999</v>
@@ -31746,7 +31788,7 @@
         <v>461</v>
       </c>
       <c r="AB341" s="5" t="s">
-        <v>1234</v>
+        <v>1212</v>
       </c>
       <c r="AG341" s="5">
         <v>1</v>
@@ -31772,10 +31814,10 @@
         <v>1</v>
       </c>
       <c r="G342" s="6" t="s">
-        <v>1198</v>
+        <v>1177</v>
       </c>
       <c r="I342" s="5" t="s">
-        <v>1210</v>
+        <v>1189</v>
       </c>
       <c r="K342" s="5">
         <v>-31</v>
@@ -31796,10 +31838,10 @@
         <v>1089</v>
       </c>
       <c r="Q342" s="10" t="s">
-        <v>1223</v>
+        <v>1201</v>
       </c>
       <c r="V342" s="5" t="s">
-        <v>1254</v>
+        <v>1232</v>
       </c>
       <c r="W342" s="5">
         <v>9999999</v>
@@ -31817,7 +31859,7 @@
         <v>461</v>
       </c>
       <c r="AB342" s="5" t="s">
-        <v>1235</v>
+        <v>1213</v>
       </c>
       <c r="AG342" s="5">
         <v>1</v>
@@ -31843,10 +31885,10 @@
         <v>1</v>
       </c>
       <c r="G343" s="6" t="s">
-        <v>1199</v>
+        <v>1178</v>
       </c>
       <c r="I343" s="5" t="s">
-        <v>1211</v>
+        <v>1190</v>
       </c>
       <c r="K343" s="5">
         <v>-31</v>
@@ -31867,10 +31909,10 @@
         <v>1089</v>
       </c>
       <c r="Q343" s="10" t="s">
-        <v>1224</v>
+        <v>1202</v>
       </c>
       <c r="V343" s="5" t="s">
-        <v>1254</v>
+        <v>1232</v>
       </c>
       <c r="W343" s="5">
         <v>9999999</v>
@@ -31888,7 +31930,7 @@
         <v>461</v>
       </c>
       <c r="AB343" s="5" t="s">
-        <v>1236</v>
+        <v>1214</v>
       </c>
       <c r="AG343" s="5">
         <v>1</v>
@@ -31914,10 +31956,10 @@
         <v>1</v>
       </c>
       <c r="G344" s="6" t="s">
-        <v>1200</v>
+        <v>1179</v>
       </c>
       <c r="I344" s="5" t="s">
-        <v>1212</v>
+        <v>1191</v>
       </c>
       <c r="K344" s="5">
         <v>-31</v>
@@ -31938,10 +31980,10 @@
         <v>1089</v>
       </c>
       <c r="Q344" s="10" t="s">
-        <v>1225</v>
+        <v>1203</v>
       </c>
       <c r="V344" s="5" t="s">
-        <v>1254</v>
+        <v>1232</v>
       </c>
       <c r="W344" s="5">
         <v>9999999</v>
@@ -31959,7 +32001,7 @@
         <v>461</v>
       </c>
       <c r="AB344" s="5" t="s">
-        <v>1237</v>
+        <v>1215</v>
       </c>
       <c r="AG344" s="5">
         <v>1</v>
@@ -31985,10 +32027,10 @@
         <v>1</v>
       </c>
       <c r="G345" s="6" t="s">
-        <v>1201</v>
+        <v>1180</v>
       </c>
       <c r="I345" s="5" t="s">
-        <v>1213</v>
+        <v>1192</v>
       </c>
       <c r="K345" s="5">
         <v>-31</v>
@@ -32009,10 +32051,10 @@
         <v>1089</v>
       </c>
       <c r="Q345" s="10" t="s">
-        <v>1226</v>
+        <v>1204</v>
       </c>
       <c r="V345" s="5" t="s">
-        <v>1254</v>
+        <v>1232</v>
       </c>
       <c r="W345" s="5">
         <v>9999999</v>
@@ -32030,7 +32072,7 @@
         <v>461</v>
       </c>
       <c r="AB345" s="5" t="s">
-        <v>1238</v>
+        <v>1216</v>
       </c>
       <c r="AG345" s="5">
         <v>1</v>
@@ -32056,10 +32098,10 @@
         <v>1</v>
       </c>
       <c r="G346" s="6" t="s">
-        <v>1202</v>
+        <v>1181</v>
       </c>
       <c r="I346" s="5" t="s">
-        <v>1214</v>
+        <v>1193</v>
       </c>
       <c r="K346" s="5">
         <v>-31</v>
@@ -32080,10 +32122,10 @@
         <v>1089</v>
       </c>
       <c r="Q346" s="10" t="s">
-        <v>1227</v>
+        <v>1205</v>
       </c>
       <c r="V346" s="5" t="s">
-        <v>1254</v>
+        <v>1232</v>
       </c>
       <c r="W346" s="5">
         <v>9999999</v>
@@ -32101,7 +32143,7 @@
         <v>461</v>
       </c>
       <c r="AB346" s="5" t="s">
-        <v>1239</v>
+        <v>1217</v>
       </c>
       <c r="AG346" s="5">
         <v>1</v>
@@ -32127,10 +32169,10 @@
         <v>1</v>
       </c>
       <c r="G347" s="6" t="s">
-        <v>1203</v>
+        <v>1182</v>
       </c>
       <c r="I347" s="5" t="s">
-        <v>1215</v>
+        <v>1194</v>
       </c>
       <c r="K347" s="5">
         <v>-31</v>
@@ -32151,10 +32193,10 @@
         <v>1089</v>
       </c>
       <c r="Q347" s="10" t="s">
-        <v>1229</v>
+        <v>1207</v>
       </c>
       <c r="V347" s="5" t="s">
-        <v>1254</v>
+        <v>1232</v>
       </c>
       <c r="W347" s="5">
         <v>9999999</v>
@@ -32172,7 +32214,7 @@
         <v>461</v>
       </c>
       <c r="AB347" s="5" t="s">
-        <v>1240</v>
+        <v>1218</v>
       </c>
       <c r="AG347" s="5">
         <v>1</v>
@@ -32198,10 +32240,10 @@
         <v>1</v>
       </c>
       <c r="G348" s="6" t="s">
-        <v>1204</v>
+        <v>1183</v>
       </c>
       <c r="I348" s="5" t="s">
-        <v>1216</v>
+        <v>1195</v>
       </c>
       <c r="K348" s="5">
         <v>-31</v>
@@ -32222,10 +32264,10 @@
         <v>1089</v>
       </c>
       <c r="Q348" s="10" t="s">
-        <v>1230</v>
+        <v>1208</v>
       </c>
       <c r="V348" s="5" t="s">
-        <v>1254</v>
+        <v>1232</v>
       </c>
       <c r="W348" s="5">
         <v>9999999</v>
@@ -32243,7 +32285,7 @@
         <v>461</v>
       </c>
       <c r="AB348" s="5" t="s">
-        <v>1241</v>
+        <v>1219</v>
       </c>
       <c r="AG348" s="5">
         <v>1</v>
@@ -32269,10 +32311,10 @@
         <v>1</v>
       </c>
       <c r="G349" s="6" t="s">
-        <v>1205</v>
+        <v>1184</v>
       </c>
       <c r="I349" s="5" t="s">
-        <v>1217</v>
+        <v>1196</v>
       </c>
       <c r="K349" s="5">
         <v>-31</v>
@@ -32293,10 +32335,10 @@
         <v>1089</v>
       </c>
       <c r="Q349" s="10" t="s">
-        <v>1228</v>
+        <v>1206</v>
       </c>
       <c r="V349" s="5" t="s">
-        <v>1254</v>
+        <v>1232</v>
       </c>
       <c r="W349" s="5">
         <v>9999999</v>
@@ -32314,7 +32356,7 @@
         <v>461</v>
       </c>
       <c r="AB349" s="5" t="s">
-        <v>1242</v>
+        <v>1220</v>
       </c>
       <c r="AG349" s="5">
         <v>1</v>
@@ -32340,10 +32382,10 @@
         <v>1</v>
       </c>
       <c r="G350" s="6" t="s">
-        <v>1206</v>
+        <v>1185</v>
       </c>
       <c r="I350" s="5" t="s">
-        <v>1218</v>
+        <v>1197</v>
       </c>
       <c r="K350" s="5">
         <v>-31</v>
@@ -32364,10 +32406,10 @@
         <v>1089</v>
       </c>
       <c r="Q350" s="10" t="s">
-        <v>1231</v>
+        <v>1209</v>
       </c>
       <c r="V350" s="5" t="s">
-        <v>1254</v>
+        <v>1232</v>
       </c>
       <c r="W350" s="5">
         <v>9999999</v>
@@ -32385,7 +32427,7 @@
         <v>461</v>
       </c>
       <c r="AB350" s="5" t="s">
-        <v>1243</v>
+        <v>1221</v>
       </c>
       <c r="AG350" s="5">
         <v>1</v>
@@ -32411,10 +32453,10 @@
         <v>1</v>
       </c>
       <c r="G351" s="6" t="s">
-        <v>1207</v>
+        <v>1186</v>
       </c>
       <c r="I351" s="5" t="s">
-        <v>1219</v>
+        <v>1198</v>
       </c>
       <c r="K351" s="5">
         <v>-31</v>
@@ -32435,10 +32477,10 @@
         <v>1089</v>
       </c>
       <c r="Q351" s="10" t="s">
+        <v>1210</v>
+      </c>
+      <c r="V351" s="5" t="s">
         <v>1232</v>
-      </c>
-      <c r="V351" s="5" t="s">
-        <v>1254</v>
       </c>
       <c r="W351" s="5">
         <v>9999999</v>
@@ -32456,7 +32498,7 @@
         <v>461</v>
       </c>
       <c r="AB351" s="5" t="s">
-        <v>1244</v>
+        <v>1222</v>
       </c>
       <c r="AG351" s="5">
         <v>1</v>
@@ -32482,10 +32524,10 @@
         <v>1</v>
       </c>
       <c r="G352" s="6" t="s">
-        <v>1208</v>
+        <v>1187</v>
       </c>
       <c r="I352" s="5" t="s">
-        <v>1220</v>
+        <v>1199</v>
       </c>
       <c r="K352" s="5">
         <v>-31</v>
@@ -32506,10 +32548,10 @@
         <v>1089</v>
       </c>
       <c r="Q352" s="10" t="s">
-        <v>1233</v>
+        <v>1211</v>
       </c>
       <c r="V352" s="5" t="s">
-        <v>1262</v>
+        <v>1240</v>
       </c>
       <c r="W352" s="5">
         <v>9999999</v>
@@ -32527,7 +32569,7 @@
         <v>461</v>
       </c>
       <c r="AB352" s="5" t="s">
-        <v>1245</v>
+        <v>1223</v>
       </c>
       <c r="AG352" s="5">
         <v>1</v>
@@ -32553,13 +32595,13 @@
         <v>0</v>
       </c>
       <c r="G353" s="5" t="s">
-        <v>1287</v>
+        <v>1265</v>
       </c>
       <c r="H353" s="5" t="s">
-        <v>1288</v>
+        <v>1266</v>
       </c>
       <c r="I353" s="5" t="s">
-        <v>1259</v>
+        <v>1237</v>
       </c>
       <c r="K353" s="5">
         <v>-31</v>
@@ -32571,16 +32613,16 @@
         <v>0</v>
       </c>
       <c r="N353" s="5" t="s">
-        <v>1263</v>
+        <v>1241</v>
       </c>
       <c r="O353" s="5">
         <v>600</v>
       </c>
       <c r="P353" s="5" t="s">
-        <v>1267</v>
+        <v>1245</v>
       </c>
       <c r="Q353" s="10" t="s">
-        <v>1260</v>
+        <v>1238</v>
       </c>
       <c r="V353" s="5" t="s">
         <v>564</v>
@@ -32621,13 +32663,13 @@
         <v>0</v>
       </c>
       <c r="G354" s="5" t="s">
-        <v>1289</v>
+        <v>1267</v>
       </c>
       <c r="H354" s="5" t="s">
-        <v>1290</v>
+        <v>1268</v>
       </c>
       <c r="I354" s="5" t="s">
-        <v>1259</v>
+        <v>1237</v>
       </c>
       <c r="K354" s="5">
         <v>-31</v>
@@ -32645,10 +32687,10 @@
         <v>1200</v>
       </c>
       <c r="P354" s="5" t="s">
-        <v>1268</v>
+        <v>1246</v>
       </c>
       <c r="Q354" s="10" t="s">
-        <v>1261</v>
+        <v>1239</v>
       </c>
       <c r="V354" s="5" t="s">
         <v>564</v>
@@ -32689,13 +32731,13 @@
         <v>0</v>
       </c>
       <c r="G355" s="5" t="s">
-        <v>1294</v>
+        <v>1272</v>
       </c>
       <c r="H355" s="5" t="s">
-        <v>1290</v>
+        <v>1268</v>
       </c>
       <c r="I355" s="5" t="s">
-        <v>1259</v>
+        <v>1237</v>
       </c>
       <c r="K355" s="5">
         <v>-31</v>
@@ -32713,13 +32755,13 @@
         <v>1800</v>
       </c>
       <c r="P355" s="5" t="s">
-        <v>1269</v>
+        <v>1247</v>
       </c>
       <c r="Q355" s="10" t="s">
-        <v>1260</v>
+        <v>1238</v>
       </c>
       <c r="V355" s="5" t="s">
-        <v>1283</v>
+        <v>1261</v>
       </c>
       <c r="W355" s="5">
         <v>9999999</v>
@@ -32757,13 +32799,13 @@
         <v>0</v>
       </c>
       <c r="G356" s="5" t="s">
-        <v>1295</v>
+        <v>1273</v>
       </c>
       <c r="H356" s="5" t="s">
-        <v>1291</v>
+        <v>1269</v>
       </c>
       <c r="I356" s="5" t="s">
-        <v>1259</v>
+        <v>1237</v>
       </c>
       <c r="K356" s="5">
         <v>-31</v>
@@ -32781,13 +32823,13 @@
         <v>4800</v>
       </c>
       <c r="P356" s="5" t="s">
-        <v>1270</v>
+        <v>1248</v>
       </c>
       <c r="Q356" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V356" s="5" t="s">
-        <v>1276</v>
+        <v>1254</v>
       </c>
       <c r="W356" s="5">
         <v>9999999</v>
@@ -32825,13 +32867,13 @@
         <v>0</v>
       </c>
       <c r="G357" s="5" t="s">
-        <v>1296</v>
+        <v>1274</v>
       </c>
       <c r="H357" s="5" t="s">
-        <v>1291</v>
+        <v>1269</v>
       </c>
       <c r="I357" s="5" t="s">
-        <v>1259</v>
+        <v>1237</v>
       </c>
       <c r="K357" s="5">
         <v>-31</v>
@@ -32849,13 +32891,13 @@
         <v>9800</v>
       </c>
       <c r="P357" s="5" t="s">
-        <v>1271</v>
+        <v>1249</v>
       </c>
       <c r="Q357" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V357" s="5" t="s">
-        <v>1276</v>
+        <v>1254</v>
       </c>
       <c r="W357" s="5">
         <v>9999999</v>
@@ -32893,13 +32935,13 @@
         <v>0</v>
       </c>
       <c r="G358" s="5" t="s">
-        <v>1294</v>
+        <v>1272</v>
       </c>
       <c r="H358" s="5" t="s">
-        <v>1291</v>
+        <v>1269</v>
       </c>
       <c r="I358" s="5" t="s">
-        <v>1259</v>
+        <v>1237</v>
       </c>
       <c r="K358" s="5">
         <v>-31</v>
@@ -32917,13 +32959,13 @@
         <v>19800</v>
       </c>
       <c r="P358" s="5" t="s">
-        <v>1272</v>
+        <v>1250</v>
       </c>
       <c r="Q358" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V358" s="5" t="s">
-        <v>1283</v>
+        <v>1261</v>
       </c>
       <c r="W358" s="5">
         <v>9999999</v>
@@ -32961,13 +33003,13 @@
         <v>0</v>
       </c>
       <c r="G359" s="5" t="s">
-        <v>1295</v>
+        <v>1273</v>
       </c>
       <c r="H359" s="5" t="s">
-        <v>1292</v>
+        <v>1270</v>
       </c>
       <c r="I359" s="5" t="s">
-        <v>1259</v>
+        <v>1237</v>
       </c>
       <c r="K359" s="5">
         <v>-31</v>
@@ -32985,13 +33027,13 @@
         <v>9800</v>
       </c>
       <c r="P359" s="5" t="s">
-        <v>1273</v>
+        <v>1251</v>
       </c>
       <c r="Q359" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V359" s="5" t="s">
-        <v>1276</v>
+        <v>1254</v>
       </c>
       <c r="W359" s="5">
         <v>9999999</v>
@@ -33029,13 +33071,13 @@
         <v>0</v>
       </c>
       <c r="G360" s="5" t="s">
-        <v>1289</v>
+        <v>1267</v>
       </c>
       <c r="H360" s="5" t="s">
-        <v>1292</v>
+        <v>1270</v>
       </c>
       <c r="I360" s="5" t="s">
-        <v>1259</v>
+        <v>1237</v>
       </c>
       <c r="K360" s="5">
         <v>-31</v>
@@ -33053,13 +33095,13 @@
         <v>19800</v>
       </c>
       <c r="P360" s="5" t="s">
-        <v>1274</v>
+        <v>1252</v>
       </c>
       <c r="Q360" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V360" s="5" t="s">
-        <v>1276</v>
+        <v>1254</v>
       </c>
       <c r="W360" s="5">
         <v>9999999</v>
@@ -33097,13 +33139,13 @@
         <v>0</v>
       </c>
       <c r="G361" s="5" t="s">
-        <v>1294</v>
+        <v>1272</v>
       </c>
       <c r="H361" s="5" t="s">
-        <v>1292</v>
+        <v>1270</v>
       </c>
       <c r="I361" s="5" t="s">
-        <v>1259</v>
+        <v>1237</v>
       </c>
       <c r="K361" s="5">
         <v>-31</v>
@@ -33121,13 +33163,13 @@
         <v>49800</v>
       </c>
       <c r="P361" s="5" t="s">
-        <v>1275</v>
+        <v>1253</v>
       </c>
       <c r="Q361" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V361" s="5" t="s">
-        <v>1284</v>
+        <v>1262</v>
       </c>
       <c r="W361" s="5">
         <v>9999999</v>
@@ -33165,13 +33207,13 @@
         <v>0</v>
       </c>
       <c r="G362" s="5" t="s">
-        <v>1294</v>
+        <v>1272</v>
       </c>
       <c r="H362" s="5" t="s">
-        <v>1290</v>
+        <v>1268</v>
       </c>
       <c r="I362" s="5" t="s">
-        <v>1259</v>
+        <v>1237</v>
       </c>
       <c r="K362" s="5">
         <v>-31</v>
@@ -33189,13 +33231,13 @@
         <v>1800</v>
       </c>
       <c r="P362" s="5" t="s">
-        <v>1269</v>
+        <v>1247</v>
       </c>
       <c r="Q362" s="10" t="s">
+        <v>1238</v>
+      </c>
+      <c r="V362" s="5" t="s">
         <v>1260</v>
-      </c>
-      <c r="V362" s="5" t="s">
-        <v>1282</v>
       </c>
       <c r="W362" s="5">
         <v>9999999</v>
@@ -33210,10 +33252,10 @@
         <v>38</v>
       </c>
       <c r="AA362" s="5" t="s">
-        <v>1278</v>
+        <v>1256</v>
       </c>
       <c r="AB362" s="5" t="s">
-        <v>1285</v>
+        <v>1263</v>
       </c>
       <c r="AG362" s="5">
         <v>1</v>
@@ -33239,13 +33281,13 @@
         <v>0</v>
       </c>
       <c r="G363" s="5" t="s">
-        <v>1294</v>
+        <v>1272</v>
       </c>
       <c r="H363" s="5" t="s">
-        <v>1293</v>
+        <v>1271</v>
       </c>
       <c r="I363" s="5" t="s">
-        <v>1259</v>
+        <v>1237</v>
       </c>
       <c r="K363" s="5">
         <v>-31</v>
@@ -33263,13 +33305,13 @@
         <v>19800</v>
       </c>
       <c r="P363" s="5" t="s">
-        <v>1272</v>
+        <v>1250</v>
       </c>
       <c r="Q363" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V363" s="5" t="s">
-        <v>1281</v>
+        <v>1259</v>
       </c>
       <c r="W363" s="5">
         <v>9999999</v>
@@ -33284,10 +33326,10 @@
         <v>39</v>
       </c>
       <c r="AA363" s="5" t="s">
-        <v>1277</v>
+        <v>1255</v>
       </c>
       <c r="AB363" s="5" t="s">
-        <v>1279</v>
+        <v>1257</v>
       </c>
       <c r="AG363" s="5">
         <v>1</v>
@@ -33313,13 +33355,13 @@
         <v>0</v>
       </c>
       <c r="G364" s="5" t="s">
-        <v>1297</v>
+        <v>1275</v>
       </c>
       <c r="H364" s="5" t="s">
-        <v>1292</v>
+        <v>1270</v>
       </c>
       <c r="I364" s="5" t="s">
-        <v>1259</v>
+        <v>1237</v>
       </c>
       <c r="K364" s="5">
         <v>-31</v>
@@ -33337,13 +33379,13 @@
         <v>49800</v>
       </c>
       <c r="P364" s="5" t="s">
-        <v>1275</v>
+        <v>1253</v>
       </c>
       <c r="Q364" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V364" s="5" t="s">
-        <v>1281</v>
+        <v>1259</v>
       </c>
       <c r="W364" s="5">
         <v>9999999</v>
@@ -33358,10 +33400,10 @@
         <v>40</v>
       </c>
       <c r="AA364" s="5" t="s">
-        <v>1277</v>
+        <v>1255</v>
       </c>
       <c r="AB364" s="5" t="s">
-        <v>1280</v>
+        <v>1258</v>
       </c>
       <c r="AG364" s="5">
         <v>1</v>
@@ -33387,10 +33429,10 @@
         <v>0</v>
       </c>
       <c r="G365" s="5" t="s">
-        <v>1318</v>
+        <v>1296</v>
       </c>
       <c r="I365" s="5" t="s">
-        <v>1324</v>
+        <v>1302</v>
       </c>
       <c r="K365" s="5">
         <v>-31</v>
@@ -33408,10 +33450,10 @@
         <v>131400</v>
       </c>
       <c r="P365" s="5" t="s">
-        <v>1329</v>
+        <v>1307</v>
       </c>
       <c r="Q365" s="10" t="s">
-        <v>1330</v>
+        <v>1308</v>
       </c>
       <c r="V365" s="5" t="s">
         <v>597</v>
@@ -33452,10 +33494,10 @@
         <v>0</v>
       </c>
       <c r="G366" s="5" t="s">
-        <v>1320</v>
+        <v>1298</v>
       </c>
       <c r="I366" s="5" t="s">
-        <v>1325</v>
+        <v>1303</v>
       </c>
       <c r="K366" s="5">
         <v>-31</v>
@@ -33473,10 +33515,10 @@
         <v>52000</v>
       </c>
       <c r="P366" s="5" t="s">
-        <v>1329</v>
+        <v>1307</v>
       </c>
       <c r="Q366" s="10" t="s">
-        <v>1331</v>
+        <v>1309</v>
       </c>
       <c r="V366" s="5" t="s">
         <v>597</v>
@@ -33517,10 +33559,10 @@
         <v>0</v>
       </c>
       <c r="G367" s="5" t="s">
-        <v>1319</v>
+        <v>1297</v>
       </c>
       <c r="I367" s="5" t="s">
-        <v>1326</v>
+        <v>1304</v>
       </c>
       <c r="K367" s="5">
         <v>-31</v>
@@ -33538,10 +33580,10 @@
         <v>25800</v>
       </c>
       <c r="P367" s="5" t="s">
-        <v>1329</v>
+        <v>1307</v>
       </c>
       <c r="Q367" s="10" t="s">
-        <v>1332</v>
+        <v>1310</v>
       </c>
       <c r="V367" s="5" t="s">
         <v>597</v>
@@ -33582,10 +33624,10 @@
         <v>0</v>
       </c>
       <c r="G368" s="5" t="s">
-        <v>1321</v>
+        <v>1299</v>
       </c>
       <c r="I368" s="5" t="s">
-        <v>1327</v>
+        <v>1305</v>
       </c>
       <c r="K368" s="5">
         <v>-31</v>
@@ -33603,10 +33645,10 @@
         <v>14700</v>
       </c>
       <c r="P368" s="5" t="s">
-        <v>1329</v>
+        <v>1307</v>
       </c>
       <c r="Q368" s="10" t="s">
-        <v>1333</v>
+        <v>1311</v>
       </c>
       <c r="V368" s="5" t="s">
         <v>597</v>
@@ -33647,10 +33689,10 @@
         <v>0</v>
       </c>
       <c r="G369" s="5" t="s">
-        <v>1322</v>
+        <v>1300</v>
       </c>
       <c r="I369" s="5" t="s">
-        <v>1328</v>
+        <v>1306</v>
       </c>
       <c r="K369" s="5">
         <v>-31</v>
@@ -33668,10 +33710,10 @@
         <v>5200</v>
       </c>
       <c r="P369" s="5" t="s">
-        <v>1358</v>
+        <v>1336</v>
       </c>
       <c r="Q369" s="10" t="s">
-        <v>1334</v>
+        <v>1312</v>
       </c>
       <c r="V369" s="5" t="s">
         <v>597</v>
@@ -33712,10 +33754,10 @@
         <v>0</v>
       </c>
       <c r="G370" s="5" t="s">
-        <v>1335</v>
+        <v>1313</v>
       </c>
       <c r="I370" s="5" t="s">
-        <v>1339</v>
+        <v>1317</v>
       </c>
       <c r="K370" s="5">
         <v>-31</v>
@@ -33733,10 +33775,10 @@
         <v>1800</v>
       </c>
       <c r="P370" s="5" t="s">
-        <v>1349</v>
+        <v>1327</v>
       </c>
       <c r="Q370" s="10" t="s">
-        <v>1343</v>
+        <v>1321</v>
       </c>
       <c r="V370" s="5" t="s">
         <v>597</v>
@@ -33774,10 +33816,10 @@
         <v>0</v>
       </c>
       <c r="G371" s="5" t="s">
-        <v>1336</v>
+        <v>1314</v>
       </c>
       <c r="I371" s="5" t="s">
-        <v>1340</v>
+        <v>1318</v>
       </c>
       <c r="K371" s="5">
         <v>-31</v>
@@ -33795,10 +33837,10 @@
         <v>4800</v>
       </c>
       <c r="P371" s="5" t="s">
-        <v>1349</v>
+        <v>1327</v>
       </c>
       <c r="Q371" s="10" t="s">
-        <v>1344</v>
+        <v>1322</v>
       </c>
       <c r="V371" s="5" t="s">
         <v>564</v>
@@ -33836,10 +33878,10 @@
         <v>0</v>
       </c>
       <c r="G372" s="5" t="s">
-        <v>1337</v>
+        <v>1315</v>
       </c>
       <c r="I372" s="5" t="s">
-        <v>1341</v>
+        <v>1319</v>
       </c>
       <c r="K372" s="5">
         <v>-31</v>
@@ -33857,13 +33899,13 @@
         <v>9800</v>
       </c>
       <c r="P372" s="5" t="s">
-        <v>1349</v>
+        <v>1327</v>
       </c>
       <c r="Q372" s="10" t="s">
-        <v>1345</v>
+        <v>1323</v>
       </c>
       <c r="V372" s="5" t="s">
-        <v>1347</v>
+        <v>1325</v>
       </c>
       <c r="W372" s="5">
         <v>9999999</v>
@@ -33898,10 +33940,10 @@
         <v>0</v>
       </c>
       <c r="G373" s="5" t="s">
-        <v>1338</v>
+        <v>1316</v>
       </c>
       <c r="I373" s="5" t="s">
-        <v>1342</v>
+        <v>1320</v>
       </c>
       <c r="K373" s="5">
         <v>-31</v>
@@ -33919,10 +33961,10 @@
         <v>19800</v>
       </c>
       <c r="P373" s="5" t="s">
-        <v>1349</v>
+        <v>1327</v>
       </c>
       <c r="Q373" s="10" t="s">
-        <v>1346</v>
+        <v>1324</v>
       </c>
       <c r="V373" s="5" t="s">
         <v>566</v>
@@ -33960,10 +34002,10 @@
         <v>1</v>
       </c>
       <c r="G374" s="5" t="s">
-        <v>1351</v>
+        <v>1329</v>
       </c>
       <c r="H374" s="5" t="s">
-        <v>1352</v>
+        <v>1330</v>
       </c>
       <c r="I374" s="5" t="s">
         <v>1117</v>
@@ -33984,13 +34026,13 @@
         <v>600</v>
       </c>
       <c r="P374" s="5" t="s">
-        <v>1359</v>
+        <v>1337</v>
       </c>
       <c r="Q374" s="10" t="s">
-        <v>1503</v>
+        <v>1481</v>
       </c>
       <c r="V374" s="5" t="s">
-        <v>1354</v>
+        <v>1332</v>
       </c>
       <c r="W374" s="5">
         <v>9999999</v>
@@ -34028,13 +34070,13 @@
         <v>1</v>
       </c>
       <c r="G375" s="5" t="s">
-        <v>1355</v>
+        <v>1333</v>
       </c>
       <c r="H375" s="5" t="s">
-        <v>1356</v>
+        <v>1334</v>
       </c>
       <c r="I375" s="5" t="s">
-        <v>1357</v>
+        <v>1335</v>
       </c>
       <c r="K375" s="5">
         <v>-31</v>
@@ -34052,10 +34094,10 @@
         <v>300</v>
       </c>
       <c r="P375" s="5" t="s">
-        <v>1359</v>
+        <v>1337</v>
       </c>
       <c r="Q375" s="10" t="s">
-        <v>1353</v>
+        <v>1331</v>
       </c>
       <c r="V375" s="5" t="s">
         <v>597</v>
@@ -34096,13 +34138,13 @@
         <v>1</v>
       </c>
       <c r="G376" s="5" t="s">
-        <v>1362</v>
+        <v>1340</v>
       </c>
       <c r="H376" s="5" t="s">
-        <v>1386</v>
+        <v>1364</v>
       </c>
       <c r="I376" s="5" t="s">
-        <v>1364</v>
+        <v>1342</v>
       </c>
       <c r="K376" s="5">
         <v>-31</v>
@@ -34114,19 +34156,19 @@
         <v>0</v>
       </c>
       <c r="N376" s="5" t="s">
-        <v>1365</v>
+        <v>1343</v>
       </c>
       <c r="O376" s="5">
         <v>0</v>
       </c>
       <c r="P376" s="5" t="s">
-        <v>1381</v>
+        <v>1359</v>
       </c>
       <c r="Q376" s="10" t="s">
         <v>791</v>
       </c>
       <c r="V376" s="5" t="s">
-        <v>1366</v>
+        <v>1344</v>
       </c>
       <c r="W376" s="5">
         <v>9999999</v>
@@ -34164,13 +34206,13 @@
         <v>0</v>
       </c>
       <c r="G377" s="5" t="s">
-        <v>1362</v>
+        <v>1340</v>
       </c>
       <c r="H377" s="5" t="s">
-        <v>1363</v>
+        <v>1341</v>
       </c>
       <c r="I377" s="5" t="s">
-        <v>1367</v>
+        <v>1345</v>
       </c>
       <c r="K377" s="5">
         <v>-31</v>
@@ -34182,19 +34224,19 @@
         <v>0</v>
       </c>
       <c r="N377" s="5" t="s">
-        <v>1365</v>
+        <v>1343</v>
       </c>
       <c r="O377" s="5">
         <v>300</v>
       </c>
       <c r="P377" s="5" t="s">
-        <v>1381</v>
+        <v>1359</v>
       </c>
       <c r="Q377" s="10" t="s">
         <v>792</v>
       </c>
       <c r="V377" s="5" t="s">
-        <v>1368</v>
+        <v>1346</v>
       </c>
       <c r="W377" s="5">
         <v>9999999</v>
@@ -34232,13 +34274,13 @@
         <v>0</v>
       </c>
       <c r="G378" s="5" t="s">
-        <v>1362</v>
+        <v>1340</v>
       </c>
       <c r="H378" s="5" t="s">
-        <v>1369</v>
+        <v>1347</v>
       </c>
       <c r="I378" s="5" t="s">
-        <v>1370</v>
+        <v>1348</v>
       </c>
       <c r="K378" s="5">
         <v>-31</v>
@@ -34256,13 +34298,13 @@
         <v>600</v>
       </c>
       <c r="P378" s="5" t="s">
-        <v>1381</v>
+        <v>1359</v>
       </c>
       <c r="Q378" s="10" t="s">
-        <v>1382</v>
+        <v>1360</v>
       </c>
       <c r="V378" s="5" t="s">
-        <v>1371</v>
+        <v>1349</v>
       </c>
       <c r="W378" s="5">
         <v>9999999</v>
@@ -34300,10 +34342,10 @@
         <v>0</v>
       </c>
       <c r="G379" s="5" t="s">
-        <v>1361</v>
+        <v>1339</v>
       </c>
       <c r="H379" s="5" t="s">
-        <v>1369</v>
+        <v>1347</v>
       </c>
       <c r="I379" s="5" t="s">
         <v>947</v>
@@ -34318,19 +34360,19 @@
         <v>0</v>
       </c>
       <c r="N379" s="5" t="s">
-        <v>1365</v>
+        <v>1343</v>
       </c>
       <c r="O379" s="5">
         <v>1800</v>
       </c>
       <c r="P379" s="5" t="s">
-        <v>1381</v>
+        <v>1359</v>
       </c>
       <c r="Q379" s="10" t="s">
         <v>794</v>
       </c>
       <c r="V379" s="5" t="s">
-        <v>1347</v>
+        <v>1325</v>
       </c>
       <c r="W379" s="5">
         <v>9999999</v>
@@ -34368,10 +34410,10 @@
         <v>0</v>
       </c>
       <c r="G380" s="5" t="s">
-        <v>1362</v>
+        <v>1340</v>
       </c>
       <c r="H380" s="5" t="s">
-        <v>1369</v>
+        <v>1347</v>
       </c>
       <c r="I380" s="5" t="s">
         <v>948</v>
@@ -34386,19 +34428,19 @@
         <v>0</v>
       </c>
       <c r="N380" s="5" t="s">
-        <v>1365</v>
+        <v>1343</v>
       </c>
       <c r="O380" s="5">
         <v>4800</v>
       </c>
       <c r="P380" s="5" t="s">
-        <v>1381</v>
+        <v>1359</v>
       </c>
       <c r="Q380" s="10" t="s">
         <v>795</v>
       </c>
       <c r="V380" s="5" t="s">
-        <v>1372</v>
+        <v>1350</v>
       </c>
       <c r="W380" s="5">
         <v>9999999</v>
@@ -34436,13 +34478,13 @@
         <v>0</v>
       </c>
       <c r="G381" s="5" t="s">
-        <v>1361</v>
+        <v>1339</v>
       </c>
       <c r="H381" s="5" t="s">
-        <v>1373</v>
+        <v>1351</v>
       </c>
       <c r="I381" s="5" t="s">
-        <v>1374</v>
+        <v>1352</v>
       </c>
       <c r="K381" s="5">
         <v>-31</v>
@@ -34460,13 +34502,13 @@
         <v>0</v>
       </c>
       <c r="P381" s="5" t="s">
-        <v>1381</v>
+        <v>1359</v>
       </c>
       <c r="Q381" s="10" t="s">
         <v>791</v>
       </c>
       <c r="V381" s="5" t="s">
-        <v>1366</v>
+        <v>1344</v>
       </c>
       <c r="W381" s="5">
         <v>9999999</v>
@@ -34504,13 +34546,13 @@
         <v>0</v>
       </c>
       <c r="G382" s="5" t="s">
-        <v>1361</v>
+        <v>1339</v>
       </c>
       <c r="H382" s="5" t="s">
-        <v>1373</v>
+        <v>1351</v>
       </c>
       <c r="I382" s="5" t="s">
-        <v>1375</v>
+        <v>1353</v>
       </c>
       <c r="K382" s="5">
         <v>-31</v>
@@ -34522,19 +34564,19 @@
         <v>0</v>
       </c>
       <c r="N382" s="5" t="s">
-        <v>1365</v>
+        <v>1343</v>
       </c>
       <c r="O382" s="5">
         <v>1800</v>
       </c>
       <c r="P382" s="5" t="s">
-        <v>1381</v>
+        <v>1359</v>
       </c>
       <c r="Q382" s="10" t="s">
         <v>794</v>
       </c>
       <c r="V382" s="5" t="s">
-        <v>1368</v>
+        <v>1346</v>
       </c>
       <c r="W382" s="5">
         <v>9999999</v>
@@ -34572,13 +34614,13 @@
         <v>0</v>
       </c>
       <c r="G383" s="5" t="s">
-        <v>1362</v>
+        <v>1340</v>
       </c>
       <c r="H383" s="5" t="s">
-        <v>1373</v>
+        <v>1351</v>
       </c>
       <c r="I383" s="5" t="s">
-        <v>1340</v>
+        <v>1318</v>
       </c>
       <c r="K383" s="5">
         <v>-31</v>
@@ -34590,19 +34632,19 @@
         <v>0</v>
       </c>
       <c r="N383" s="5" t="s">
-        <v>1365</v>
+        <v>1343</v>
       </c>
       <c r="O383" s="5">
         <v>4800</v>
       </c>
       <c r="P383" s="5" t="s">
-        <v>1381</v>
+        <v>1359</v>
       </c>
       <c r="Q383" s="10" t="s">
         <v>795</v>
       </c>
       <c r="V383" s="5" t="s">
-        <v>1418</v>
+        <v>1396</v>
       </c>
       <c r="W383" s="5">
         <v>9999999</v>
@@ -34640,13 +34682,13 @@
         <v>0</v>
       </c>
       <c r="G384" s="5" t="s">
-        <v>1361</v>
+        <v>1339</v>
       </c>
       <c r="H384" s="5" t="s">
-        <v>1376</v>
+        <v>1354</v>
       </c>
       <c r="I384" s="5" t="s">
-        <v>1341</v>
+        <v>1319</v>
       </c>
       <c r="K384" s="5">
         <v>-31</v>
@@ -34658,19 +34700,19 @@
         <v>0</v>
       </c>
       <c r="N384" s="5" t="s">
-        <v>1365</v>
+        <v>1343</v>
       </c>
       <c r="O384" s="5">
         <v>9800</v>
       </c>
       <c r="P384" s="5" t="s">
-        <v>1381</v>
+        <v>1359</v>
       </c>
       <c r="Q384" s="10" t="s">
         <v>798</v>
       </c>
       <c r="V384" s="5" t="s">
-        <v>1377</v>
+        <v>1355</v>
       </c>
       <c r="W384" s="5">
         <v>9999999</v>
@@ -34708,13 +34750,13 @@
         <v>0</v>
       </c>
       <c r="G385" s="5" t="s">
-        <v>1361</v>
+        <v>1339</v>
       </c>
       <c r="H385" s="5" t="s">
-        <v>1373</v>
+        <v>1351</v>
       </c>
       <c r="I385" s="5" t="s">
-        <v>1378</v>
+        <v>1356</v>
       </c>
       <c r="K385" s="5">
         <v>-31</v>
@@ -34726,19 +34768,19 @@
         <v>0</v>
       </c>
       <c r="N385" s="5" t="s">
-        <v>1365</v>
+        <v>1343</v>
       </c>
       <c r="O385" s="5">
         <v>19800</v>
       </c>
       <c r="P385" s="5" t="s">
-        <v>1381</v>
+        <v>1359</v>
       </c>
       <c r="Q385" s="10" t="s">
         <v>799</v>
       </c>
       <c r="V385" s="5" t="s">
-        <v>1372</v>
+        <v>1350</v>
       </c>
       <c r="W385" s="5">
         <v>9999999</v>
@@ -34776,13 +34818,13 @@
         <v>1</v>
       </c>
       <c r="G386" s="19" t="s">
-        <v>1383</v>
+        <v>1361</v>
       </c>
       <c r="H386" s="19" t="s">
-        <v>1387</v>
+        <v>1365</v>
       </c>
       <c r="I386" s="19" t="s">
-        <v>1390</v>
+        <v>1368</v>
       </c>
       <c r="K386" s="19">
         <v>-31</v>
@@ -34794,19 +34836,19 @@
         <v>0</v>
       </c>
       <c r="N386" s="19" t="s">
-        <v>1399</v>
+        <v>1377</v>
       </c>
       <c r="O386" s="19">
         <v>1800</v>
       </c>
       <c r="P386" s="19" t="s">
-        <v>1400</v>
+        <v>1378</v>
       </c>
       <c r="Q386" s="40" t="s">
-        <v>1409</v>
+        <v>1387</v>
       </c>
       <c r="V386" s="19" t="s">
-        <v>1419</v>
+        <v>1397</v>
       </c>
       <c r="W386" s="19">
         <v>9999999</v>
@@ -34844,13 +34886,13 @@
         <v>1</v>
       </c>
       <c r="G387" s="19" t="s">
-        <v>1384</v>
+        <v>1362</v>
       </c>
       <c r="H387" s="19" t="s">
-        <v>1387</v>
+        <v>1365</v>
       </c>
       <c r="I387" s="19" t="s">
-        <v>1391</v>
+        <v>1369</v>
       </c>
       <c r="K387" s="19">
         <v>-31</v>
@@ -34862,19 +34904,19 @@
         <v>0</v>
       </c>
       <c r="N387" s="19" t="s">
-        <v>1399</v>
+        <v>1377</v>
       </c>
       <c r="O387" s="19">
         <v>3000</v>
       </c>
       <c r="P387" s="19" t="s">
-        <v>1402</v>
+        <v>1380</v>
       </c>
       <c r="Q387" s="40" t="s">
-        <v>1410</v>
+        <v>1388</v>
       </c>
       <c r="V387" s="19" t="s">
-        <v>1419</v>
+        <v>1397</v>
       </c>
       <c r="W387" s="19">
         <v>9999999</v>
@@ -34912,13 +34954,13 @@
         <v>1</v>
       </c>
       <c r="G388" s="19" t="s">
-        <v>1385</v>
+        <v>1363</v>
       </c>
       <c r="H388" s="19" t="s">
-        <v>1387</v>
+        <v>1365</v>
       </c>
       <c r="I388" s="19" t="s">
-        <v>1392</v>
+        <v>1370</v>
       </c>
       <c r="K388" s="19">
         <v>-31</v>
@@ -34930,19 +34972,19 @@
         <v>0</v>
       </c>
       <c r="N388" s="19" t="s">
-        <v>1399</v>
+        <v>1377</v>
       </c>
       <c r="O388" s="19">
         <v>4800</v>
       </c>
       <c r="P388" s="19" t="s">
-        <v>1403</v>
+        <v>1381</v>
       </c>
       <c r="Q388" s="40" t="s">
-        <v>1411</v>
+        <v>1389</v>
       </c>
       <c r="V388" s="19" t="s">
-        <v>1419</v>
+        <v>1397</v>
       </c>
       <c r="W388" s="19">
         <v>9999999</v>
@@ -34980,13 +35022,13 @@
         <v>1</v>
       </c>
       <c r="G389" s="19" t="s">
-        <v>1383</v>
+        <v>1361</v>
       </c>
       <c r="H389" s="19" t="s">
-        <v>1388</v>
+        <v>1366</v>
       </c>
       <c r="I389" s="19" t="s">
-        <v>1393</v>
+        <v>1371</v>
       </c>
       <c r="K389" s="19">
         <v>-31</v>
@@ -34998,19 +35040,19 @@
         <v>0</v>
       </c>
       <c r="N389" s="19" t="s">
-        <v>1399</v>
+        <v>1377</v>
       </c>
       <c r="O389" s="19">
         <v>4800</v>
       </c>
       <c r="P389" s="19" t="s">
-        <v>1404</v>
+        <v>1382</v>
       </c>
       <c r="Q389" s="40" t="s">
-        <v>1412</v>
+        <v>1390</v>
       </c>
       <c r="V389" s="19" t="s">
-        <v>1419</v>
+        <v>1397</v>
       </c>
       <c r="W389" s="19">
         <v>9999999</v>
@@ -35048,13 +35090,13 @@
         <v>1</v>
       </c>
       <c r="G390" s="19" t="s">
-        <v>1384</v>
+        <v>1362</v>
       </c>
       <c r="H390" s="19" t="s">
-        <v>1388</v>
+        <v>1366</v>
       </c>
       <c r="I390" s="19" t="s">
-        <v>1394</v>
+        <v>1372</v>
       </c>
       <c r="K390" s="19">
         <v>-31</v>
@@ -35066,19 +35108,19 @@
         <v>0</v>
       </c>
       <c r="N390" s="19" t="s">
-        <v>1399</v>
+        <v>1377</v>
       </c>
       <c r="O390" s="19">
         <v>9800</v>
       </c>
       <c r="P390" s="19" t="s">
-        <v>1405</v>
+        <v>1383</v>
       </c>
       <c r="Q390" s="40" t="s">
-        <v>1413</v>
+        <v>1391</v>
       </c>
       <c r="V390" s="19" t="s">
-        <v>1419</v>
+        <v>1397</v>
       </c>
       <c r="W390" s="19">
         <v>9999999</v>
@@ -35116,13 +35158,13 @@
         <v>1</v>
       </c>
       <c r="G391" s="19" t="s">
-        <v>1385</v>
+        <v>1363</v>
       </c>
       <c r="H391" s="19" t="s">
-        <v>1388</v>
+        <v>1366</v>
       </c>
       <c r="I391" s="19" t="s">
-        <v>1395</v>
+        <v>1373</v>
       </c>
       <c r="K391" s="19">
         <v>-31</v>
@@ -35134,19 +35176,19 @@
         <v>0</v>
       </c>
       <c r="N391" s="19" t="s">
-        <v>1399</v>
+        <v>1377</v>
       </c>
       <c r="O391" s="19">
         <v>19800</v>
       </c>
       <c r="P391" s="19" t="s">
-        <v>1406</v>
+        <v>1384</v>
       </c>
       <c r="Q391" s="40" t="s">
-        <v>1414</v>
+        <v>1392</v>
       </c>
       <c r="V391" s="19" t="s">
-        <v>1419</v>
+        <v>1397</v>
       </c>
       <c r="W391" s="19">
         <v>9999999</v>
@@ -35184,13 +35226,13 @@
         <v>1</v>
       </c>
       <c r="G392" s="19" t="s">
-        <v>1383</v>
+        <v>1361</v>
       </c>
       <c r="H392" s="19" t="s">
-        <v>1389</v>
+        <v>1367</v>
       </c>
       <c r="I392" s="19" t="s">
-        <v>1396</v>
+        <v>1374</v>
       </c>
       <c r="K392" s="19">
         <v>-31</v>
@@ -35202,19 +35244,19 @@
         <v>0</v>
       </c>
       <c r="N392" s="19" t="s">
-        <v>1399</v>
+        <v>1377</v>
       </c>
       <c r="O392" s="19">
         <v>9800</v>
       </c>
       <c r="P392" s="19" t="s">
-        <v>1401</v>
+        <v>1379</v>
       </c>
       <c r="Q392" s="40" t="s">
-        <v>1415</v>
+        <v>1393</v>
       </c>
       <c r="V392" s="19" t="s">
-        <v>1419</v>
+        <v>1397</v>
       </c>
       <c r="W392" s="19">
         <v>9999999</v>
@@ -35252,13 +35294,13 @@
         <v>1</v>
       </c>
       <c r="G393" s="19" t="s">
-        <v>1384</v>
+        <v>1362</v>
       </c>
       <c r="H393" s="19" t="s">
-        <v>1389</v>
+        <v>1367</v>
       </c>
       <c r="I393" s="19" t="s">
-        <v>1397</v>
+        <v>1375</v>
       </c>
       <c r="K393" s="19">
         <v>-31</v>
@@ -35270,19 +35312,19 @@
         <v>0</v>
       </c>
       <c r="N393" s="19" t="s">
-        <v>1399</v>
+        <v>1377</v>
       </c>
       <c r="O393" s="19">
         <v>19800</v>
       </c>
       <c r="P393" s="19" t="s">
-        <v>1407</v>
+        <v>1385</v>
       </c>
       <c r="Q393" s="40" t="s">
-        <v>1417</v>
+        <v>1395</v>
       </c>
       <c r="V393" s="19" t="s">
-        <v>1419</v>
+        <v>1397</v>
       </c>
       <c r="W393" s="19">
         <v>9999999</v>
@@ -35320,13 +35362,13 @@
         <v>1</v>
       </c>
       <c r="G394" s="19" t="s">
-        <v>1385</v>
+        <v>1363</v>
       </c>
       <c r="H394" s="19" t="s">
-        <v>1389</v>
+        <v>1367</v>
       </c>
       <c r="I394" s="19" t="s">
-        <v>1398</v>
+        <v>1376</v>
       </c>
       <c r="K394" s="19">
         <v>-31</v>
@@ -35338,19 +35380,19 @@
         <v>0</v>
       </c>
       <c r="N394" s="19" t="s">
-        <v>1399</v>
+        <v>1377</v>
       </c>
       <c r="O394" s="19">
         <v>49800</v>
       </c>
       <c r="P394" s="19" t="s">
-        <v>1408</v>
+        <v>1386</v>
       </c>
       <c r="Q394" s="40" t="s">
-        <v>1416</v>
+        <v>1394</v>
       </c>
       <c r="V394" s="19" t="s">
-        <v>1419</v>
+        <v>1397</v>
       </c>
       <c r="W394" s="19">
         <v>9999999</v>
@@ -35388,10 +35430,10 @@
         <v>1</v>
       </c>
       <c r="G395" s="52" t="s">
-        <v>1423</v>
+        <v>1401</v>
       </c>
       <c r="I395" s="52" t="s">
-        <v>1427</v>
+        <v>1405</v>
       </c>
       <c r="K395" s="52">
         <v>-31</v>
@@ -35409,10 +35451,10 @@
         <v>600</v>
       </c>
       <c r="P395" s="52" t="s">
-        <v>1441</v>
+        <v>1419</v>
       </c>
       <c r="Q395" s="53" t="s">
-        <v>1435</v>
+        <v>1413</v>
       </c>
       <c r="V395" s="52" t="s">
         <v>553</v>
@@ -35450,10 +35492,10 @@
         <v>1</v>
       </c>
       <c r="G396" s="52" t="s">
-        <v>1424</v>
+        <v>1402</v>
       </c>
       <c r="I396" s="52" t="s">
-        <v>1428</v>
+        <v>1406</v>
       </c>
       <c r="K396" s="52">
         <v>-31</v>
@@ -35471,10 +35513,10 @@
         <v>2000</v>
       </c>
       <c r="P396" s="52" t="s">
-        <v>1434</v>
+        <v>1412</v>
       </c>
       <c r="Q396" s="53" t="s">
-        <v>1440</v>
+        <v>1418</v>
       </c>
       <c r="V396" s="52" t="s">
         <v>553</v>
@@ -35515,7 +35557,7 @@
         <v>301</v>
       </c>
       <c r="I397" s="52" t="s">
-        <v>1429</v>
+        <v>1407</v>
       </c>
       <c r="K397" s="52">
         <v>-31</v>
@@ -35533,10 +35575,10 @@
         <v>4800</v>
       </c>
       <c r="P397" s="52" t="s">
-        <v>1434</v>
+        <v>1412</v>
       </c>
       <c r="Q397" s="53" t="s">
-        <v>1439</v>
+        <v>1417</v>
       </c>
       <c r="V397" s="52" t="s">
         <v>553</v>
@@ -35577,7 +35619,7 @@
         <v>304</v>
       </c>
       <c r="I398" s="52" t="s">
-        <v>1430</v>
+        <v>1408</v>
       </c>
       <c r="K398" s="52">
         <v>-31</v>
@@ -35595,10 +35637,10 @@
         <v>9800</v>
       </c>
       <c r="P398" s="52" t="s">
-        <v>1434</v>
+        <v>1412</v>
       </c>
       <c r="Q398" s="53" t="s">
-        <v>1438</v>
+        <v>1416</v>
       </c>
       <c r="V398" s="52" t="s">
         <v>553</v>
@@ -35636,10 +35678,10 @@
         <v>1</v>
       </c>
       <c r="G399" s="52" t="s">
-        <v>1425</v>
+        <v>1403</v>
       </c>
       <c r="I399" s="52" t="s">
-        <v>1431</v>
+        <v>1409</v>
       </c>
       <c r="K399" s="52">
         <v>-31</v>
@@ -35657,10 +35699,10 @@
         <v>19800</v>
       </c>
       <c r="P399" s="52" t="s">
-        <v>1434</v>
+        <v>1412</v>
       </c>
       <c r="Q399" s="53" t="s">
-        <v>1437</v>
+        <v>1415</v>
       </c>
       <c r="V399" s="52" t="s">
         <v>553</v>
@@ -35698,10 +35740,10 @@
         <v>1</v>
       </c>
       <c r="G400" s="52" t="s">
-        <v>1426</v>
+        <v>1404</v>
       </c>
       <c r="I400" s="52" t="s">
-        <v>1432</v>
+        <v>1410</v>
       </c>
       <c r="K400" s="52">
         <v>-31</v>
@@ -35719,10 +35761,10 @@
         <v>49800</v>
       </c>
       <c r="P400" s="52" t="s">
-        <v>1434</v>
+        <v>1412</v>
       </c>
       <c r="Q400" s="53" t="s">
-        <v>1436</v>
+        <v>1414</v>
       </c>
       <c r="V400" s="52" t="s">
         <v>553</v>
@@ -35760,10 +35802,10 @@
         <v>1</v>
       </c>
       <c r="G401" s="54" t="s">
-        <v>1443</v>
+        <v>1421</v>
       </c>
       <c r="I401" s="54" t="s">
-        <v>1458</v>
+        <v>1436</v>
       </c>
       <c r="K401" s="54">
         <v>-31</v>
@@ -35775,19 +35817,19 @@
         <v>0</v>
       </c>
       <c r="N401" s="54" t="s">
-        <v>1444</v>
+        <v>1422</v>
       </c>
       <c r="O401" s="54">
         <v>1800</v>
       </c>
       <c r="P401" s="54" t="s">
-        <v>1445</v>
+        <v>1423</v>
       </c>
       <c r="Q401" s="54" t="s">
-        <v>1470</v>
+        <v>1448</v>
       </c>
       <c r="V401" s="54" t="s">
-        <v>1446</v>
+        <v>1424</v>
       </c>
       <c r="W401" s="54">
         <v>99999999</v>
@@ -35825,10 +35867,10 @@
         <v>1</v>
       </c>
       <c r="G402" s="54" t="s">
-        <v>1447</v>
+        <v>1425</v>
       </c>
       <c r="I402" s="54" t="s">
-        <v>1459</v>
+        <v>1437</v>
       </c>
       <c r="K402" s="54">
         <v>-31</v>
@@ -35840,19 +35882,19 @@
         <v>0</v>
       </c>
       <c r="N402" s="54" t="s">
-        <v>1444</v>
+        <v>1422</v>
       </c>
       <c r="O402" s="54">
         <v>4800</v>
       </c>
       <c r="P402" s="54" t="s">
-        <v>1445</v>
+        <v>1423</v>
       </c>
       <c r="Q402" s="54" t="s">
-        <v>1466</v>
+        <v>1444</v>
       </c>
       <c r="V402" s="54" t="s">
-        <v>1446</v>
+        <v>1424</v>
       </c>
       <c r="W402" s="54">
         <v>99999999</v>
@@ -35890,10 +35932,10 @@
         <v>1</v>
       </c>
       <c r="G403" s="54" t="s">
-        <v>1448</v>
+        <v>1426</v>
       </c>
       <c r="I403" s="54" t="s">
-        <v>1460</v>
+        <v>1438</v>
       </c>
       <c r="K403" s="54">
         <v>-31</v>
@@ -35905,19 +35947,19 @@
         <v>0</v>
       </c>
       <c r="N403" s="54" t="s">
-        <v>1449</v>
+        <v>1427</v>
       </c>
       <c r="O403" s="54">
         <v>9800</v>
       </c>
       <c r="P403" s="54" t="s">
-        <v>1450</v>
+        <v>1428</v>
       </c>
       <c r="Q403" s="54" t="s">
-        <v>1471</v>
+        <v>1449</v>
       </c>
       <c r="V403" s="54" t="s">
-        <v>1446</v>
+        <v>1424</v>
       </c>
       <c r="W403" s="54">
         <v>99999999</v>
@@ -35955,10 +35997,10 @@
         <v>1</v>
       </c>
       <c r="G404" s="54" t="s">
-        <v>1451</v>
+        <v>1429</v>
       </c>
       <c r="I404" s="54" t="s">
-        <v>1461</v>
+        <v>1439</v>
       </c>
       <c r="K404" s="54">
         <v>-31</v>
@@ -35970,19 +36012,19 @@
         <v>0</v>
       </c>
       <c r="N404" s="54" t="s">
-        <v>1444</v>
+        <v>1422</v>
       </c>
       <c r="O404" s="54">
         <v>19800</v>
       </c>
       <c r="P404" s="54" t="s">
-        <v>1452</v>
+        <v>1430</v>
       </c>
       <c r="Q404" s="54" t="s">
-        <v>1465</v>
+        <v>1443</v>
       </c>
       <c r="V404" s="54" t="s">
-        <v>1446</v>
+        <v>1424</v>
       </c>
       <c r="W404" s="54">
         <v>99999999</v>
@@ -36020,10 +36062,10 @@
         <v>1</v>
       </c>
       <c r="G405" s="54" t="s">
-        <v>1453</v>
+        <v>1431</v>
       </c>
       <c r="I405" s="54" t="s">
-        <v>1462</v>
+        <v>1440</v>
       </c>
       <c r="K405" s="54">
         <v>-31</v>
@@ -36035,19 +36077,19 @@
         <v>0</v>
       </c>
       <c r="N405" s="54" t="s">
-        <v>1449</v>
+        <v>1427</v>
       </c>
       <c r="O405" s="54">
         <v>29800</v>
       </c>
       <c r="P405" s="54" t="s">
-        <v>1452</v>
+        <v>1430</v>
       </c>
       <c r="Q405" s="54" t="s">
-        <v>1472</v>
+        <v>1450</v>
       </c>
       <c r="V405" s="54" t="s">
-        <v>1446</v>
+        <v>1424</v>
       </c>
       <c r="W405" s="54">
         <v>99999999</v>
@@ -36085,10 +36127,10 @@
         <v>1</v>
       </c>
       <c r="G406" s="54" t="s">
-        <v>1454</v>
+        <v>1432</v>
       </c>
       <c r="I406" s="54" t="s">
-        <v>1463</v>
+        <v>1441</v>
       </c>
       <c r="K406" s="54">
         <v>-31</v>
@@ -36100,19 +36142,19 @@
         <v>0</v>
       </c>
       <c r="N406" s="54" t="s">
-        <v>1449</v>
+        <v>1427</v>
       </c>
       <c r="O406" s="54">
         <v>49800</v>
       </c>
       <c r="P406" s="54" t="s">
-        <v>1455</v>
+        <v>1433</v>
       </c>
       <c r="Q406" s="54" t="s">
-        <v>1467</v>
+        <v>1445</v>
       </c>
       <c r="V406" s="54" t="s">
-        <v>1446</v>
+        <v>1424</v>
       </c>
       <c r="W406" s="54">
         <v>99999999</v>
@@ -36150,10 +36192,10 @@
         <v>1</v>
       </c>
       <c r="G407" s="54" t="s">
-        <v>1456</v>
+        <v>1434</v>
       </c>
       <c r="I407" s="54" t="s">
-        <v>1464</v>
+        <v>1442</v>
       </c>
       <c r="K407" s="54">
         <v>-31</v>
@@ -36165,19 +36207,19 @@
         <v>0</v>
       </c>
       <c r="N407" s="54" t="s">
-        <v>1449</v>
+        <v>1427</v>
       </c>
       <c r="O407" s="54">
         <v>99800</v>
       </c>
       <c r="P407" s="54" t="s">
-        <v>1457</v>
+        <v>1435</v>
       </c>
       <c r="Q407" s="54" t="s">
-        <v>1468</v>
+        <v>1446</v>
       </c>
       <c r="V407" s="54" t="s">
-        <v>1446</v>
+        <v>1424</v>
       </c>
       <c r="W407" s="54">
         <v>99999999</v>
@@ -36215,10 +36257,10 @@
         <v>1</v>
       </c>
       <c r="G408" s="61" t="s">
-        <v>1479</v>
+        <v>1457</v>
       </c>
       <c r="I408" s="61" t="s">
-        <v>1485</v>
+        <v>1463</v>
       </c>
       <c r="K408" s="61">
         <v>-31</v>
@@ -36236,13 +36278,13 @@
         <v>600</v>
       </c>
       <c r="P408" s="61" t="s">
-        <v>1491</v>
+        <v>1469</v>
       </c>
       <c r="Q408" s="62" t="s">
-        <v>1492</v>
+        <v>1470</v>
       </c>
       <c r="V408" s="61" t="s">
-        <v>1498</v>
+        <v>1476</v>
       </c>
       <c r="W408" s="61">
         <v>99999999</v>
@@ -36280,10 +36322,10 @@
         <v>1</v>
       </c>
       <c r="G409" s="61" t="s">
-        <v>1480</v>
+        <v>1458</v>
       </c>
       <c r="I409" s="61" t="s">
-        <v>1486</v>
+        <v>1464</v>
       </c>
       <c r="K409" s="61">
         <v>-31</v>
@@ -36301,13 +36343,13 @@
         <v>2000</v>
       </c>
       <c r="P409" s="61" t="s">
-        <v>1491</v>
+        <v>1469</v>
       </c>
       <c r="Q409" s="62" t="s">
-        <v>1493</v>
+        <v>1471</v>
       </c>
       <c r="V409" s="61" t="s">
-        <v>1499</v>
+        <v>1477</v>
       </c>
       <c r="W409" s="61">
         <v>99999999</v>
@@ -36345,10 +36387,10 @@
         <v>1</v>
       </c>
       <c r="G410" s="61" t="s">
-        <v>1481</v>
+        <v>1459</v>
       </c>
       <c r="I410" s="61" t="s">
-        <v>1487</v>
+        <v>1465</v>
       </c>
       <c r="K410" s="61">
         <v>-31</v>
@@ -36366,13 +36408,13 @@
         <v>4800</v>
       </c>
       <c r="P410" s="61" t="s">
-        <v>1491</v>
+        <v>1469</v>
       </c>
       <c r="Q410" s="62" t="s">
-        <v>1494</v>
+        <v>1472</v>
       </c>
       <c r="V410" s="61" t="s">
-        <v>1499</v>
+        <v>1477</v>
       </c>
       <c r="W410" s="61">
         <v>99999999</v>
@@ -36410,10 +36452,10 @@
         <v>1</v>
       </c>
       <c r="G411" s="61" t="s">
-        <v>1482</v>
+        <v>1460</v>
       </c>
       <c r="I411" s="61" t="s">
-        <v>1488</v>
+        <v>1466</v>
       </c>
       <c r="K411" s="61">
         <v>-31</v>
@@ -36431,13 +36473,13 @@
         <v>9800</v>
       </c>
       <c r="P411" s="61" t="s">
-        <v>1491</v>
+        <v>1469</v>
       </c>
       <c r="Q411" s="62" t="s">
-        <v>1495</v>
+        <v>1473</v>
       </c>
       <c r="V411" s="61" t="s">
-        <v>1500</v>
+        <v>1478</v>
       </c>
       <c r="W411" s="61">
         <v>99999999</v>
@@ -36475,10 +36517,10 @@
         <v>1</v>
       </c>
       <c r="G412" s="61" t="s">
-        <v>1483</v>
+        <v>1461</v>
       </c>
       <c r="I412" s="61" t="s">
-        <v>1490</v>
+        <v>1468</v>
       </c>
       <c r="K412" s="61">
         <v>-31</v>
@@ -36496,13 +36538,13 @@
         <v>19800</v>
       </c>
       <c r="P412" s="61" t="s">
-        <v>1491</v>
+        <v>1469</v>
       </c>
       <c r="Q412" s="62" t="s">
-        <v>1496</v>
+        <v>1474</v>
       </c>
       <c r="V412" s="61" t="s">
-        <v>1501</v>
+        <v>1479</v>
       </c>
       <c r="W412" s="61">
         <v>99999999</v>
@@ -36540,10 +36582,10 @@
         <v>1</v>
       </c>
       <c r="G413" s="61" t="s">
-        <v>1484</v>
+        <v>1462</v>
       </c>
       <c r="I413" s="61" t="s">
-        <v>1489</v>
+        <v>1467</v>
       </c>
       <c r="K413" s="61">
         <v>-31</v>
@@ -36561,13 +36603,13 @@
         <v>49800</v>
       </c>
       <c r="P413" s="61" t="s">
-        <v>1491</v>
+        <v>1469</v>
       </c>
       <c r="Q413" s="62" t="s">
-        <v>1497</v>
+        <v>1475</v>
       </c>
       <c r="V413" s="61" t="s">
-        <v>1499</v>
+        <v>1477</v>
       </c>
       <c r="W413" s="61">
         <v>99999999</v>
@@ -36608,7 +36650,7 @@
         <v>1</v>
       </c>
       <c r="G414" s="5" t="s">
-        <v>1507</v>
+        <v>1485</v>
       </c>
       <c r="K414" s="5">
         <v>-4</v>
@@ -36629,7 +36671,7 @@
         <v>90</v>
       </c>
       <c r="Q414" s="10" t="s">
-        <v>1508</v>
+        <v>1486</v>
       </c>
       <c r="V414" s="5" t="s">
         <v>550</v>
@@ -36661,13 +36703,13 @@
         <v>1</v>
       </c>
       <c r="G415" s="6" t="s">
-        <v>1524</v>
+        <v>1502</v>
       </c>
       <c r="H415" s="6" t="s">
-        <v>1525</v>
+        <v>1503</v>
       </c>
       <c r="I415" s="6" t="s">
-        <v>1534</v>
+        <v>1512</v>
       </c>
       <c r="K415" s="6">
         <v>-31</v>
@@ -36685,13 +36727,13 @@
         <v>600</v>
       </c>
       <c r="P415" s="5" t="s">
-        <v>1535</v>
+        <v>1513</v>
       </c>
       <c r="Q415" s="49" t="s">
-        <v>1536</v>
+        <v>1514</v>
       </c>
       <c r="V415" s="6" t="s">
-        <v>1537</v>
+        <v>1515</v>
       </c>
       <c r="W415" s="14" t="s">
         <v>121</v>
@@ -36729,13 +36771,13 @@
         <v>1</v>
       </c>
       <c r="G416" s="6" t="s">
-        <v>1538</v>
+        <v>1516</v>
       </c>
       <c r="H416" s="6" t="s">
-        <v>1539</v>
+        <v>1517</v>
       </c>
       <c r="I416" s="6" t="s">
-        <v>1526</v>
+        <v>1504</v>
       </c>
       <c r="K416" s="6">
         <v>-31</v>
@@ -36753,13 +36795,13 @@
         <v>1800</v>
       </c>
       <c r="P416" s="5" t="s">
-        <v>1540</v>
+        <v>1518</v>
       </c>
       <c r="Q416" s="49" t="s">
-        <v>1527</v>
+        <v>1505</v>
       </c>
       <c r="V416" s="6" t="s">
-        <v>1537</v>
+        <v>1515</v>
       </c>
       <c r="W416" s="14" t="s">
         <v>121</v>
@@ -36797,13 +36839,13 @@
         <v>1</v>
       </c>
       <c r="G417" s="6" t="s">
-        <v>1541</v>
+        <v>1519</v>
       </c>
       <c r="H417" s="6" t="s">
-        <v>1539</v>
+        <v>1517</v>
       </c>
       <c r="I417" s="6" t="s">
-        <v>1534</v>
+        <v>1512</v>
       </c>
       <c r="K417" s="6">
         <v>-31</v>
@@ -36821,13 +36863,13 @@
         <v>4800</v>
       </c>
       <c r="P417" s="5" t="s">
-        <v>1269</v>
+        <v>1247</v>
       </c>
       <c r="Q417" s="49" t="s">
-        <v>1527</v>
+        <v>1505</v>
       </c>
       <c r="V417" s="6" t="s">
-        <v>1276</v>
+        <v>1254</v>
       </c>
       <c r="W417" s="14" t="s">
         <v>121</v>
@@ -36865,13 +36907,13 @@
         <v>1</v>
       </c>
       <c r="G418" s="6" t="s">
-        <v>1542</v>
+        <v>1520</v>
       </c>
       <c r="H418" s="6" t="s">
-        <v>1529</v>
+        <v>1507</v>
       </c>
       <c r="I418" s="6" t="s">
-        <v>1534</v>
+        <v>1512</v>
       </c>
       <c r="K418" s="6">
         <v>-31</v>
@@ -36889,13 +36931,13 @@
         <v>9800</v>
       </c>
       <c r="P418" s="5" t="s">
-        <v>1270</v>
+        <v>1248</v>
       </c>
       <c r="Q418" s="49" t="s">
-        <v>1536</v>
+        <v>1514</v>
       </c>
       <c r="V418" s="6" t="s">
-        <v>1276</v>
+        <v>1254</v>
       </c>
       <c r="W418" s="14" t="s">
         <v>121</v>
@@ -36933,13 +36975,13 @@
         <v>1</v>
       </c>
       <c r="G419" s="6" t="s">
-        <v>1538</v>
+        <v>1516</v>
       </c>
       <c r="H419" s="6" t="s">
-        <v>1543</v>
+        <v>1521</v>
       </c>
       <c r="I419" s="6" t="s">
-        <v>1526</v>
+        <v>1504</v>
       </c>
       <c r="K419" s="6">
         <v>-31</v>
@@ -36957,13 +36999,13 @@
         <v>19800</v>
       </c>
       <c r="P419" s="5" t="s">
-        <v>1271</v>
+        <v>1249</v>
       </c>
       <c r="Q419" s="49" t="s">
-        <v>1536</v>
+        <v>1514</v>
       </c>
       <c r="V419" s="6" t="s">
-        <v>1276</v>
+        <v>1254</v>
       </c>
       <c r="W419" s="14" t="s">
         <v>121</v>
@@ -37001,13 +37043,13 @@
         <v>1</v>
       </c>
       <c r="G420" s="6" t="s">
-        <v>1528</v>
+        <v>1506</v>
       </c>
       <c r="H420" s="6" t="s">
-        <v>1529</v>
+        <v>1507</v>
       </c>
       <c r="I420" s="6" t="s">
-        <v>1534</v>
+        <v>1512</v>
       </c>
       <c r="K420" s="6">
         <v>-31</v>
@@ -37025,13 +37067,13 @@
         <v>49800</v>
       </c>
       <c r="P420" s="5" t="s">
-        <v>1272</v>
+        <v>1250</v>
       </c>
       <c r="Q420" s="49" t="s">
-        <v>1536</v>
+        <v>1514</v>
       </c>
       <c r="V420" s="6" t="s">
-        <v>1276</v>
+        <v>1254</v>
       </c>
       <c r="W420" s="14" t="s">
         <v>121</v>
@@ -37069,10 +37111,10 @@
         <v>1</v>
       </c>
       <c r="G421" s="19" t="s">
-        <v>1544</v>
+        <v>1522</v>
       </c>
       <c r="I421" s="19" t="s">
-        <v>1545</v>
+        <v>1523</v>
       </c>
       <c r="K421" s="19">
         <v>-31</v>
@@ -37084,19 +37126,19 @@
         <v>0</v>
       </c>
       <c r="N421" s="19" t="s">
-        <v>1546</v>
+        <v>1524</v>
       </c>
       <c r="O421" s="19">
         <v>1000</v>
       </c>
       <c r="P421" s="19" t="s">
-        <v>1547</v>
+        <v>1525</v>
       </c>
       <c r="Q421" s="40" t="s">
-        <v>1548</v>
+        <v>1526</v>
       </c>
       <c r="V421" s="19" t="s">
-        <v>1530</v>
+        <v>1508</v>
       </c>
       <c r="W421" s="19">
         <v>9999999</v>
@@ -37108,10 +37150,10 @@
         <v>2552233600</v>
       </c>
       <c r="AA421" s="19" t="s">
-        <v>1549</v>
+        <v>1527</v>
       </c>
       <c r="AB421" s="19" t="s">
-        <v>1550</v>
+        <v>1528</v>
       </c>
       <c r="AG421" s="19">
         <v>1</v>
@@ -37137,13 +37179,13 @@
         <v>1</v>
       </c>
       <c r="G422" s="67" t="s">
-        <v>1551</v>
+        <v>1529</v>
       </c>
       <c r="H422" s="67" t="s">
-        <v>1552</v>
+        <v>1530</v>
       </c>
       <c r="I422" s="67" t="s">
-        <v>1553</v>
+        <v>1531</v>
       </c>
       <c r="K422" s="67">
         <v>-31</v>
@@ -37161,13 +37203,13 @@
         <v>2000</v>
       </c>
       <c r="P422" s="67" t="s">
-        <v>1554</v>
+        <v>1532</v>
       </c>
       <c r="Q422" s="68" t="s">
-        <v>1555</v>
+        <v>1533</v>
       </c>
       <c r="V422" s="67" t="s">
-        <v>1530</v>
+        <v>1508</v>
       </c>
       <c r="W422" s="67">
         <v>99999999</v>
@@ -37205,13 +37247,13 @@
         <v>1</v>
       </c>
       <c r="G423" s="67" t="s">
-        <v>1556</v>
+        <v>1534</v>
       </c>
       <c r="H423" s="67" t="s">
-        <v>1552</v>
+        <v>1530</v>
       </c>
       <c r="I423" s="67" t="s">
-        <v>1557</v>
+        <v>1535</v>
       </c>
       <c r="K423" s="67">
         <v>-31</v>
@@ -37229,13 +37271,13 @@
         <v>5800</v>
       </c>
       <c r="P423" s="67" t="s">
-        <v>1558</v>
+        <v>1536</v>
       </c>
       <c r="Q423" s="68" t="s">
-        <v>1559</v>
+        <v>1537</v>
       </c>
       <c r="V423" s="67" t="s">
-        <v>1560</v>
+        <v>1538</v>
       </c>
       <c r="W423" s="67">
         <v>99999999</v>
@@ -37273,13 +37315,13 @@
         <v>1</v>
       </c>
       <c r="G424" s="67" t="s">
-        <v>1561</v>
+        <v>1539</v>
       </c>
       <c r="H424" s="67" t="s">
-        <v>1552</v>
+        <v>1530</v>
       </c>
       <c r="I424" s="67" t="s">
-        <v>1562</v>
+        <v>1540</v>
       </c>
       <c r="K424" s="67">
         <v>-31</v>
@@ -37297,13 +37339,13 @@
         <v>12800</v>
       </c>
       <c r="P424" s="67" t="s">
-        <v>1563</v>
+        <v>1541</v>
       </c>
       <c r="Q424" s="68" t="s">
-        <v>1564</v>
+        <v>1542</v>
       </c>
       <c r="V424" s="67" t="s">
-        <v>1560</v>
+        <v>1538</v>
       </c>
       <c r="W424" s="67">
         <v>99999999</v>
@@ -37341,10 +37383,10 @@
         <v>1</v>
       </c>
       <c r="G425" s="6" t="s">
-        <v>1565</v>
+        <v>1543</v>
       </c>
       <c r="I425" s="6" t="s">
-        <v>1566</v>
+        <v>1544</v>
       </c>
       <c r="K425" s="6">
         <v>-31</v>
@@ -37362,13 +37404,13 @@
         <v>49800</v>
       </c>
       <c r="P425" s="6" t="s">
-        <v>1531</v>
+        <v>1509</v>
       </c>
       <c r="Q425" s="49" t="s">
-        <v>1567</v>
+        <v>1545</v>
       </c>
       <c r="V425" s="6" t="s">
-        <v>1560</v>
+        <v>1538</v>
       </c>
       <c r="W425" s="6">
         <v>9999999</v>
@@ -37397,10 +37439,10 @@
         <v>1</v>
       </c>
       <c r="G426" s="6" t="s">
-        <v>1568</v>
+        <v>1546</v>
       </c>
       <c r="I426" s="6" t="s">
-        <v>1569</v>
+        <v>1547</v>
       </c>
       <c r="K426" s="6">
         <v>-31</v>
@@ -37418,13 +37460,13 @@
         <v>19800</v>
       </c>
       <c r="P426" s="6" t="s">
-        <v>1570</v>
+        <v>1548</v>
       </c>
       <c r="Q426" s="49" t="s">
-        <v>1532</v>
+        <v>1510</v>
       </c>
       <c r="V426" s="6" t="s">
-        <v>1560</v>
+        <v>1538</v>
       </c>
       <c r="W426" s="6">
         <v>9999999</v>
@@ -37453,10 +37495,10 @@
         <v>1</v>
       </c>
       <c r="G427" s="6" t="s">
-        <v>1571</v>
+        <v>1549</v>
       </c>
       <c r="I427" s="6" t="s">
-        <v>1572</v>
+        <v>1550</v>
       </c>
       <c r="K427" s="6">
         <v>-31</v>
@@ -37474,13 +37516,13 @@
         <v>9800</v>
       </c>
       <c r="P427" s="6" t="s">
-        <v>1573</v>
+        <v>1551</v>
       </c>
       <c r="Q427" s="49" t="s">
-        <v>1567</v>
+        <v>1545</v>
       </c>
       <c r="V427" s="6" t="s">
-        <v>1560</v>
+        <v>1538</v>
       </c>
       <c r="W427" s="6">
         <v>9999999</v>
@@ -37509,10 +37551,10 @@
         <v>1</v>
       </c>
       <c r="G428" s="6" t="s">
-        <v>1574</v>
+        <v>1552</v>
       </c>
       <c r="I428" s="6" t="s">
-        <v>1575</v>
+        <v>1553</v>
       </c>
       <c r="K428" s="6">
         <v>-31</v>
@@ -37530,13 +37572,13 @@
         <v>9800</v>
       </c>
       <c r="P428" s="6" t="s">
-        <v>1576</v>
+        <v>1554</v>
       </c>
       <c r="Q428" s="49" t="s">
-        <v>1532</v>
+        <v>1510</v>
       </c>
       <c r="V428" s="6" t="s">
-        <v>1560</v>
+        <v>1538</v>
       </c>
       <c r="W428" s="6">
         <v>9999999</v>
@@ -37565,10 +37607,10 @@
         <v>1</v>
       </c>
       <c r="G429" s="6" t="s">
-        <v>1577</v>
+        <v>1555</v>
       </c>
       <c r="I429" s="6" t="s">
-        <v>1578</v>
+        <v>1556</v>
       </c>
       <c r="K429" s="6">
         <v>-31</v>
@@ -37586,13 +37628,13 @@
         <v>4800</v>
       </c>
       <c r="P429" s="6" t="s">
-        <v>1579</v>
+        <v>1557</v>
       </c>
       <c r="Q429" s="49" t="s">
-        <v>1532</v>
+        <v>1510</v>
       </c>
       <c r="V429" s="6" t="s">
-        <v>1560</v>
+        <v>1538</v>
       </c>
       <c r="W429" s="6">
         <v>9999999</v>
@@ -37621,13 +37663,13 @@
         <v>1</v>
       </c>
       <c r="G430" s="19" t="s">
-        <v>1580</v>
+        <v>1558</v>
       </c>
       <c r="H430" s="19" t="s">
-        <v>1581</v>
+        <v>1559</v>
       </c>
       <c r="I430" s="19" t="s">
-        <v>1519</v>
+        <v>1497</v>
       </c>
       <c r="K430" s="19">
         <v>-28</v>
@@ -37645,13 +37687,13 @@
         <v>100</v>
       </c>
       <c r="P430" s="19" t="s">
-        <v>1520</v>
+        <v>1498</v>
       </c>
       <c r="Q430" s="40" t="s">
-        <v>1582</v>
+        <v>1560</v>
       </c>
       <c r="V430" s="19" t="s">
-        <v>1583</v>
+        <v>1561</v>
       </c>
       <c r="W430" s="19">
         <v>9999999</v>
@@ -37689,13 +37731,13 @@
         <v>1</v>
       </c>
       <c r="G431" s="19" t="s">
-        <v>1580</v>
+        <v>1558</v>
       </c>
       <c r="H431" s="19" t="s">
-        <v>1584</v>
+        <v>1562</v>
       </c>
       <c r="I431" s="19" t="s">
-        <v>1521</v>
+        <v>1499</v>
       </c>
       <c r="K431" s="19">
         <v>-28</v>
@@ -37713,10 +37755,10 @@
         <v>300</v>
       </c>
       <c r="P431" s="19" t="s">
-        <v>1520</v>
+        <v>1498</v>
       </c>
       <c r="Q431" s="40" t="s">
-        <v>1585</v>
+        <v>1563</v>
       </c>
       <c r="V431" s="19" t="s">
         <v>553</v>
@@ -37757,13 +37799,13 @@
         <v>1</v>
       </c>
       <c r="G432" s="19" t="s">
-        <v>1580</v>
+        <v>1558</v>
       </c>
       <c r="H432" s="19" t="s">
-        <v>1586</v>
+        <v>1564</v>
       </c>
       <c r="I432" s="19" t="s">
-        <v>1522</v>
+        <v>1500</v>
       </c>
       <c r="K432" s="19">
         <v>-28</v>
@@ -37781,7 +37823,7 @@
         <v>600</v>
       </c>
       <c r="P432" s="19" t="s">
-        <v>1520</v>
+        <v>1498</v>
       </c>
       <c r="Q432" s="40" t="s">
         <v>773</v>
@@ -37825,13 +37867,13 @@
         <v>1</v>
       </c>
       <c r="G433" s="19" t="s">
-        <v>1580</v>
+        <v>1558</v>
       </c>
       <c r="H433" s="19" t="s">
-        <v>1533</v>
+        <v>1511</v>
       </c>
       <c r="I433" s="19" t="s">
-        <v>1523</v>
+        <v>1501</v>
       </c>
       <c r="K433" s="19">
         <v>-28</v>
@@ -37849,10 +37891,10 @@
         <v>600</v>
       </c>
       <c r="P433" s="19" t="s">
-        <v>1520</v>
+        <v>1498</v>
       </c>
       <c r="Q433" s="40" t="s">
-        <v>1587</v>
+        <v>1565</v>
       </c>
       <c r="V433" s="19" t="s">
         <v>553</v>
@@ -37893,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="G434" s="5" t="s">
-        <v>1588</v>
+        <v>1566</v>
       </c>
       <c r="H434" s="5" t="s">
-        <v>1589</v>
+        <v>1567</v>
       </c>
       <c r="I434" s="5" t="s">
-        <v>1590</v>
+        <v>1568</v>
       </c>
       <c r="K434" s="5">
         <v>-31</v>
@@ -37917,10 +37959,10 @@
         <v>1800</v>
       </c>
       <c r="P434" s="5" t="s">
-        <v>1591</v>
+        <v>1569</v>
       </c>
       <c r="Q434" s="10" t="s">
-        <v>1470</v>
+        <v>1448</v>
       </c>
       <c r="V434" s="5" t="s">
         <v>553</v>
@@ -37958,13 +38000,13 @@
         <v>0</v>
       </c>
       <c r="G435" s="5" t="s">
-        <v>1592</v>
+        <v>1570</v>
       </c>
       <c r="H435" s="5" t="s">
-        <v>1589</v>
+        <v>1567</v>
       </c>
       <c r="I435" s="5" t="s">
-        <v>1593</v>
+        <v>1571</v>
       </c>
       <c r="K435" s="5">
         <v>-31</v>
@@ -37982,10 +38024,10 @@
         <v>4800</v>
       </c>
       <c r="P435" s="5" t="s">
-        <v>1591</v>
+        <v>1569</v>
       </c>
       <c r="Q435" s="10" t="s">
-        <v>1466</v>
+        <v>1444</v>
       </c>
       <c r="V435" s="5" t="s">
         <v>553</v>
@@ -38023,13 +38065,13 @@
         <v>0</v>
       </c>
       <c r="G436" s="5" t="s">
-        <v>1448</v>
+        <v>1426</v>
       </c>
       <c r="H436" s="5" t="s">
-        <v>1589</v>
+        <v>1567</v>
       </c>
       <c r="I436" s="5" t="s">
-        <v>1594</v>
+        <v>1572</v>
       </c>
       <c r="K436" s="5">
         <v>-31</v>
@@ -38047,10 +38089,10 @@
         <v>9800</v>
       </c>
       <c r="P436" s="5" t="s">
-        <v>1595</v>
+        <v>1573</v>
       </c>
       <c r="Q436" s="10" t="s">
-        <v>1596</v>
+        <v>1574</v>
       </c>
       <c r="V436" s="5" t="s">
         <v>553</v>
@@ -38088,13 +38130,13 @@
         <v>0</v>
       </c>
       <c r="G437" s="5" t="s">
-        <v>1451</v>
+        <v>1429</v>
       </c>
       <c r="H437" s="5" t="s">
-        <v>1589</v>
+        <v>1567</v>
       </c>
       <c r="I437" s="5" t="s">
-        <v>1597</v>
+        <v>1575</v>
       </c>
       <c r="K437" s="5">
         <v>-31</v>
@@ -38112,10 +38154,10 @@
         <v>19800</v>
       </c>
       <c r="P437" s="5" t="s">
-        <v>1595</v>
+        <v>1573</v>
       </c>
       <c r="Q437" s="10" t="s">
-        <v>1465</v>
+        <v>1443</v>
       </c>
       <c r="V437" s="5" t="s">
         <v>553</v>
@@ -38153,13 +38195,13 @@
         <v>0</v>
       </c>
       <c r="G438" s="5" t="s">
-        <v>1453</v>
+        <v>1431</v>
       </c>
       <c r="H438" s="5" t="s">
-        <v>1589</v>
+        <v>1567</v>
       </c>
       <c r="I438" s="5" t="s">
-        <v>1598</v>
+        <v>1576</v>
       </c>
       <c r="K438" s="5">
         <v>-31</v>
@@ -38177,10 +38219,10 @@
         <v>29800</v>
       </c>
       <c r="P438" s="5" t="s">
-        <v>1595</v>
+        <v>1573</v>
       </c>
       <c r="Q438" s="10" t="s">
-        <v>1472</v>
+        <v>1450</v>
       </c>
       <c r="V438" s="5" t="s">
         <v>553</v>
@@ -38218,13 +38260,13 @@
         <v>0</v>
       </c>
       <c r="G439" s="5" t="s">
-        <v>1454</v>
+        <v>1432</v>
       </c>
       <c r="H439" s="5" t="s">
-        <v>1589</v>
+        <v>1567</v>
       </c>
       <c r="I439" s="5" t="s">
-        <v>1599</v>
+        <v>1577</v>
       </c>
       <c r="K439" s="5">
         <v>-31</v>
@@ -38242,10 +38284,10 @@
         <v>49800</v>
       </c>
       <c r="P439" s="5" t="s">
-        <v>1600</v>
+        <v>1578</v>
       </c>
       <c r="Q439" s="10" t="s">
-        <v>1467</v>
+        <v>1445</v>
       </c>
       <c r="V439" s="5" t="s">
         <v>553</v>
@@ -38283,13 +38325,13 @@
         <v>0</v>
       </c>
       <c r="G440" s="5" t="s">
-        <v>1456</v>
+        <v>1434</v>
       </c>
       <c r="H440" s="5" t="s">
-        <v>1589</v>
+        <v>1567</v>
       </c>
       <c r="I440" s="5" t="s">
-        <v>1601</v>
+        <v>1579</v>
       </c>
       <c r="K440" s="5">
         <v>-31</v>
@@ -38307,10 +38349,10 @@
         <v>99800</v>
       </c>
       <c r="P440" s="5" t="s">
-        <v>1600</v>
+        <v>1578</v>
       </c>
       <c r="Q440" s="10" t="s">
-        <v>1468</v>
+        <v>1446</v>
       </c>
       <c r="V440" s="5" t="s">
         <v>597</v>
@@ -38348,10 +38390,10 @@
         <v>0</v>
       </c>
       <c r="G441" s="5" t="s">
-        <v>1602</v>
+        <v>1580</v>
       </c>
       <c r="I441" s="5" t="s">
-        <v>1603</v>
+        <v>1581</v>
       </c>
       <c r="K441" s="5">
         <v>-31</v>
@@ -38369,13 +38411,13 @@
         <v>49800</v>
       </c>
       <c r="P441" s="5" t="s">
-        <v>1604</v>
+        <v>1582</v>
       </c>
       <c r="Q441" s="10" t="s">
-        <v>1605</v>
+        <v>1583</v>
       </c>
       <c r="V441" s="5" t="s">
-        <v>1606</v>
+        <v>1584</v>
       </c>
       <c r="W441" s="5">
         <v>9999999</v>
@@ -38410,10 +38452,10 @@
         <v>0</v>
       </c>
       <c r="G442" s="5" t="s">
-        <v>1607</v>
+        <v>1585</v>
       </c>
       <c r="I442" s="5" t="s">
-        <v>1608</v>
+        <v>1586</v>
       </c>
       <c r="K442" s="5">
         <v>-31</v>
@@ -38431,13 +38473,13 @@
         <v>19800</v>
       </c>
       <c r="P442" s="5" t="s">
-        <v>1604</v>
+        <v>1582</v>
       </c>
       <c r="Q442" s="10" t="s">
-        <v>1609</v>
+        <v>1587</v>
       </c>
       <c r="V442" s="5" t="s">
-        <v>1606</v>
+        <v>1584</v>
       </c>
       <c r="W442" s="5">
         <v>9999999</v>
@@ -38472,10 +38514,10 @@
         <v>0</v>
       </c>
       <c r="G443" s="5" t="s">
-        <v>1610</v>
+        <v>1588</v>
       </c>
       <c r="I443" s="5" t="s">
-        <v>1611</v>
+        <v>1589</v>
       </c>
       <c r="K443" s="5">
         <v>-31</v>
@@ -38493,13 +38535,13 @@
         <v>9800</v>
       </c>
       <c r="P443" s="5" t="s">
-        <v>1604</v>
+        <v>1582</v>
       </c>
       <c r="Q443" s="10" t="s">
-        <v>1612</v>
+        <v>1590</v>
       </c>
       <c r="V443" s="5" t="s">
-        <v>1606</v>
+        <v>1584</v>
       </c>
       <c r="W443" s="5">
         <v>9999999</v>
@@ -38534,10 +38576,10 @@
         <v>0</v>
       </c>
       <c r="G444" s="5" t="s">
-        <v>1613</v>
+        <v>1591</v>
       </c>
       <c r="I444" s="5" t="s">
-        <v>1614</v>
+        <v>1592</v>
       </c>
       <c r="K444" s="5">
         <v>-31</v>
@@ -38555,13 +38597,13 @@
         <v>4800</v>
       </c>
       <c r="P444" s="5" t="s">
-        <v>1604</v>
+        <v>1582</v>
       </c>
       <c r="Q444" s="10" t="s">
-        <v>1615</v>
+        <v>1593</v>
       </c>
       <c r="V444" s="5" t="s">
-        <v>1606</v>
+        <v>1584</v>
       </c>
       <c r="W444" s="5">
         <v>9999999</v>
@@ -38596,10 +38638,10 @@
         <v>0</v>
       </c>
       <c r="G445" s="5" t="s">
-        <v>1616</v>
+        <v>1594</v>
       </c>
       <c r="I445" s="5" t="s">
-        <v>1617</v>
+        <v>1595</v>
       </c>
       <c r="K445" s="5">
         <v>-31</v>
@@ -38617,10 +38659,10 @@
         <v>2000</v>
       </c>
       <c r="P445" s="5" t="s">
-        <v>1604</v>
+        <v>1582</v>
       </c>
       <c r="Q445" s="10" t="s">
-        <v>1618</v>
+        <v>1596</v>
       </c>
       <c r="V445" s="5" t="s">
         <v>597</v>
@@ -38658,10 +38700,10 @@
         <v>0</v>
       </c>
       <c r="G446" s="5" t="s">
-        <v>1619</v>
+        <v>1597</v>
       </c>
       <c r="I446" s="5" t="s">
-        <v>1620</v>
+        <v>1598</v>
       </c>
       <c r="K446" s="5">
         <v>-31</v>
@@ -38679,10 +38721,10 @@
         <v>600</v>
       </c>
       <c r="P446" s="5" t="s">
-        <v>1604</v>
+        <v>1582</v>
       </c>
       <c r="Q446" s="10" t="s">
-        <v>1435</v>
+        <v>1413</v>
       </c>
       <c r="V446" s="5" t="s">
         <v>597</v>
@@ -38720,13 +38762,13 @@
         <v>1</v>
       </c>
       <c r="G447" s="69" t="s">
-        <v>1621</v>
+        <v>1599</v>
       </c>
       <c r="H447" s="69" t="s">
-        <v>1622</v>
+        <v>1600</v>
       </c>
       <c r="I447" s="69" t="s">
-        <v>1623</v>
+        <v>1601</v>
       </c>
       <c r="K447" s="69">
         <v>-31</v>
@@ -38747,7 +38789,7 @@
         <v>461</v>
       </c>
       <c r="Q447" s="70" t="s">
-        <v>1624</v>
+        <v>1602</v>
       </c>
       <c r="V447" s="5" t="s">
         <v>597</v>
@@ -38788,13 +38830,13 @@
         <v>1</v>
       </c>
       <c r="G448" s="69" t="s">
-        <v>1625</v>
+        <v>1603</v>
       </c>
       <c r="H448" s="69" t="s">
-        <v>1626</v>
+        <v>1604</v>
       </c>
       <c r="I448" s="69" t="s">
-        <v>1627</v>
+        <v>1605</v>
       </c>
       <c r="K448" s="69">
         <v>-31</v>
@@ -38815,7 +38857,7 @@
         <v>461</v>
       </c>
       <c r="Q448" s="70" t="s">
-        <v>1628</v>
+        <v>1606</v>
       </c>
       <c r="V448" s="5" t="s">
         <v>597</v>
@@ -38853,13 +38895,13 @@
         <v>1</v>
       </c>
       <c r="G449" s="69" t="s">
-        <v>1629</v>
+        <v>1607</v>
       </c>
       <c r="H449" s="69" t="s">
-        <v>1630</v>
+        <v>1608</v>
       </c>
       <c r="I449" s="69" t="s">
-        <v>1631</v>
+        <v>1609</v>
       </c>
       <c r="K449" s="69">
         <v>-31</v>
@@ -38880,7 +38922,7 @@
         <v>461</v>
       </c>
       <c r="Q449" s="70" t="s">
-        <v>1632</v>
+        <v>1610</v>
       </c>
       <c r="V449" s="5" t="s">
         <v>553</v>
@@ -38921,13 +38963,13 @@
         <v>1</v>
       </c>
       <c r="G450" s="71" t="s">
-        <v>1633</v>
+        <v>1611</v>
       </c>
       <c r="H450" s="71" t="s">
-        <v>1634</v>
+        <v>1612</v>
       </c>
       <c r="I450" s="71" t="s">
-        <v>1635</v>
+        <v>1613</v>
       </c>
       <c r="K450" s="71">
         <v>-31</v>
@@ -38948,7 +38990,7 @@
         <v>461</v>
       </c>
       <c r="Q450" s="72" t="s">
-        <v>1636</v>
+        <v>1614</v>
       </c>
       <c r="V450" s="5" t="s">
         <v>553</v>
@@ -38989,13 +39031,13 @@
         <v>1</v>
       </c>
       <c r="G451" s="71" t="s">
-        <v>1637</v>
+        <v>1615</v>
       </c>
       <c r="H451" s="71" t="s">
-        <v>1638</v>
+        <v>1616</v>
       </c>
       <c r="I451" s="71" t="s">
-        <v>1639</v>
+        <v>1617</v>
       </c>
       <c r="K451" s="71">
         <v>-31</v>
@@ -39016,7 +39058,7 @@
         <v>461</v>
       </c>
       <c r="Q451" s="72" t="s">
-        <v>1640</v>
+        <v>1618</v>
       </c>
       <c r="V451" s="5" t="s">
         <v>553</v>
@@ -39054,13 +39096,13 @@
         <v>1</v>
       </c>
       <c r="G452" s="71" t="s">
-        <v>1641</v>
+        <v>1619</v>
       </c>
       <c r="H452" s="71" t="s">
-        <v>1642</v>
+        <v>1620</v>
       </c>
       <c r="I452" s="71" t="s">
-        <v>1643</v>
+        <v>1621</v>
       </c>
       <c r="K452" s="71">
         <v>-31</v>
@@ -39081,7 +39123,7 @@
         <v>461</v>
       </c>
       <c r="Q452" s="72" t="s">
-        <v>1644</v>
+        <v>1622</v>
       </c>
       <c r="V452" s="5" t="s">
         <v>553</v>
@@ -39122,13 +39164,13 @@
         <v>1</v>
       </c>
       <c r="G453" s="69" t="s">
-        <v>1645</v>
+        <v>1623</v>
       </c>
       <c r="H453" s="69" t="s">
-        <v>1646</v>
+        <v>1624</v>
       </c>
       <c r="I453" s="69" t="s">
-        <v>1647</v>
+        <v>1625</v>
       </c>
       <c r="K453" s="69">
         <v>-31</v>
@@ -39149,7 +39191,7 @@
         <v>461</v>
       </c>
       <c r="Q453" s="70" t="s">
-        <v>1648</v>
+        <v>1626</v>
       </c>
       <c r="V453" s="5" t="s">
         <v>553</v>
@@ -39190,13 +39232,13 @@
         <v>1</v>
       </c>
       <c r="G454" s="69" t="s">
-        <v>1649</v>
+        <v>1627</v>
       </c>
       <c r="H454" s="69" t="s">
-        <v>1650</v>
+        <v>1628</v>
       </c>
       <c r="I454" s="69" t="s">
-        <v>1651</v>
+        <v>1629</v>
       </c>
       <c r="K454" s="69">
         <v>-31</v>
@@ -39217,7 +39259,7 @@
         <v>461</v>
       </c>
       <c r="Q454" s="70" t="s">
-        <v>1652</v>
+        <v>1630</v>
       </c>
       <c r="V454" s="5" t="s">
         <v>553</v>
@@ -39255,13 +39297,13 @@
         <v>1</v>
       </c>
       <c r="G455" s="69" t="s">
-        <v>1653</v>
+        <v>1631</v>
       </c>
       <c r="H455" s="69" t="s">
-        <v>1654</v>
+        <v>1632</v>
       </c>
       <c r="I455" s="69" t="s">
-        <v>1655</v>
+        <v>1633</v>
       </c>
       <c r="K455" s="69">
         <v>-31</v>
@@ -39282,7 +39324,7 @@
         <v>461</v>
       </c>
       <c r="Q455" s="70" t="s">
-        <v>1656</v>
+        <v>1634</v>
       </c>
       <c r="V455" s="5" t="s">
         <v>553</v>
@@ -39323,13 +39365,13 @@
         <v>1</v>
       </c>
       <c r="G456" s="71" t="s">
-        <v>1657</v>
+        <v>1635</v>
       </c>
       <c r="H456" s="71" t="s">
-        <v>1658</v>
+        <v>1636</v>
       </c>
       <c r="I456" s="71" t="s">
-        <v>1659</v>
+        <v>1637</v>
       </c>
       <c r="K456" s="71">
         <v>-31</v>
@@ -39350,7 +39392,7 @@
         <v>461</v>
       </c>
       <c r="Q456" s="72" t="s">
-        <v>1660</v>
+        <v>1638</v>
       </c>
       <c r="V456" s="5" t="s">
         <v>553</v>
@@ -39391,13 +39433,13 @@
         <v>1</v>
       </c>
       <c r="G457" s="71" t="s">
-        <v>1661</v>
+        <v>1639</v>
       </c>
       <c r="H457" s="71" t="s">
-        <v>1662</v>
+        <v>1640</v>
       </c>
       <c r="I457" s="71" t="s">
-        <v>1663</v>
+        <v>1641</v>
       </c>
       <c r="K457" s="71">
         <v>-31</v>
@@ -39418,7 +39460,7 @@
         <v>461</v>
       </c>
       <c r="Q457" s="72" t="s">
-        <v>1664</v>
+        <v>1642</v>
       </c>
       <c r="V457" s="5" t="s">
         <v>553</v>
@@ -39456,13 +39498,13 @@
         <v>1</v>
       </c>
       <c r="G458" s="71" t="s">
-        <v>1665</v>
+        <v>1643</v>
       </c>
       <c r="H458" s="71" t="s">
-        <v>1666</v>
+        <v>1644</v>
       </c>
       <c r="I458" s="71" t="s">
-        <v>1667</v>
+        <v>1645</v>
       </c>
       <c r="K458" s="71">
         <v>-31</v>
@@ -39483,7 +39525,7 @@
         <v>461</v>
       </c>
       <c r="Q458" s="72" t="s">
-        <v>1668</v>
+        <v>1646</v>
       </c>
       <c r="V458" s="5" t="s">
         <v>553</v>
@@ -39524,13 +39566,13 @@
         <v>1</v>
       </c>
       <c r="G459" s="69" t="s">
-        <v>1669</v>
+        <v>1647</v>
       </c>
       <c r="H459" s="69" t="s">
-        <v>1670</v>
+        <v>1648</v>
       </c>
       <c r="I459" s="69" t="s">
-        <v>1671</v>
+        <v>1649</v>
       </c>
       <c r="K459" s="69">
         <v>-31</v>
@@ -39551,7 +39593,7 @@
         <v>461</v>
       </c>
       <c r="Q459" s="70" t="s">
-        <v>1672</v>
+        <v>1650</v>
       </c>
       <c r="V459" s="5" t="s">
         <v>553</v>
@@ -39592,13 +39634,13 @@
         <v>1</v>
       </c>
       <c r="G460" s="69" t="s">
-        <v>1673</v>
+        <v>1651</v>
       </c>
       <c r="H460" s="69" t="s">
-        <v>1674</v>
+        <v>1652</v>
       </c>
       <c r="I460" s="69" t="s">
-        <v>1675</v>
+        <v>1653</v>
       </c>
       <c r="K460" s="69">
         <v>-31</v>
@@ -39619,7 +39661,7 @@
         <v>461</v>
       </c>
       <c r="Q460" s="70" t="s">
-        <v>1676</v>
+        <v>1654</v>
       </c>
       <c r="V460" s="5" t="s">
         <v>553</v>
@@ -39657,13 +39699,13 @@
         <v>1</v>
       </c>
       <c r="G461" s="69" t="s">
-        <v>1677</v>
+        <v>1655</v>
       </c>
       <c r="H461" s="69" t="s">
-        <v>1678</v>
+        <v>1656</v>
       </c>
       <c r="I461" s="69" t="s">
-        <v>1679</v>
+        <v>1657</v>
       </c>
       <c r="K461" s="69">
         <v>-31</v>
@@ -39684,7 +39726,7 @@
         <v>461</v>
       </c>
       <c r="Q461" s="70" t="s">
-        <v>1680</v>
+        <v>1658</v>
       </c>
       <c r="V461" s="5" t="s">
         <v>553</v>
@@ -39725,13 +39767,13 @@
         <v>1</v>
       </c>
       <c r="G462" s="71" t="s">
-        <v>1681</v>
+        <v>1659</v>
       </c>
       <c r="H462" s="71" t="s">
-        <v>1682</v>
+        <v>1660</v>
       </c>
       <c r="I462" s="71" t="s">
-        <v>1683</v>
+        <v>1661</v>
       </c>
       <c r="K462" s="71">
         <v>-31</v>
@@ -39752,7 +39794,7 @@
         <v>461</v>
       </c>
       <c r="Q462" s="72" t="s">
-        <v>1684</v>
+        <v>1662</v>
       </c>
       <c r="V462" s="5" t="s">
         <v>553</v>
@@ -39793,13 +39835,13 @@
         <v>1</v>
       </c>
       <c r="G463" s="71" t="s">
-        <v>1685</v>
+        <v>1663</v>
       </c>
       <c r="H463" s="71" t="s">
-        <v>1686</v>
+        <v>1664</v>
       </c>
       <c r="I463" s="71" t="s">
-        <v>1687</v>
+        <v>1665</v>
       </c>
       <c r="K463" s="71">
         <v>-31</v>
@@ -39820,7 +39862,7 @@
         <v>461</v>
       </c>
       <c r="Q463" s="72" t="s">
-        <v>1688</v>
+        <v>1666</v>
       </c>
       <c r="V463" s="5" t="s">
         <v>553</v>
@@ -39858,13 +39900,13 @@
         <v>1</v>
       </c>
       <c r="G464" s="71" t="s">
-        <v>1689</v>
+        <v>1667</v>
       </c>
       <c r="H464" s="71" t="s">
-        <v>1690</v>
+        <v>1668</v>
       </c>
       <c r="I464" s="71" t="s">
-        <v>1691</v>
+        <v>1669</v>
       </c>
       <c r="K464" s="71">
         <v>-31</v>
@@ -39885,7 +39927,7 @@
         <v>461</v>
       </c>
       <c r="Q464" s="72" t="s">
-        <v>1692</v>
+        <v>1670</v>
       </c>
       <c r="V464" s="5" t="s">
         <v>553</v>
@@ -39926,13 +39968,13 @@
         <v>1</v>
       </c>
       <c r="G465" s="69" t="s">
-        <v>1693</v>
+        <v>1671</v>
       </c>
       <c r="H465" s="69" t="s">
-        <v>1694</v>
+        <v>1672</v>
       </c>
       <c r="I465" s="69" t="s">
-        <v>1695</v>
+        <v>1673</v>
       </c>
       <c r="K465" s="69">
         <v>-31</v>
@@ -39953,7 +39995,7 @@
         <v>461</v>
       </c>
       <c r="Q465" s="70" t="s">
-        <v>1696</v>
+        <v>1674</v>
       </c>
       <c r="V465" s="5" t="s">
         <v>553</v>
@@ -39994,13 +40036,13 @@
         <v>1</v>
       </c>
       <c r="G466" s="69" t="s">
-        <v>1697</v>
+        <v>1675</v>
       </c>
       <c r="H466" s="69" t="s">
-        <v>1698</v>
+        <v>1676</v>
       </c>
       <c r="I466" s="69" t="s">
-        <v>1699</v>
+        <v>1677</v>
       </c>
       <c r="K466" s="69">
         <v>-31</v>
@@ -40021,7 +40063,7 @@
         <v>461</v>
       </c>
       <c r="Q466" s="70" t="s">
-        <v>1700</v>
+        <v>1678</v>
       </c>
       <c r="V466" s="5" t="s">
         <v>553</v>
@@ -40059,13 +40101,13 @@
         <v>1</v>
       </c>
       <c r="G467" s="69" t="s">
-        <v>1701</v>
+        <v>1679</v>
       </c>
       <c r="H467" s="69" t="s">
-        <v>1702</v>
+        <v>1680</v>
       </c>
       <c r="I467" s="69" t="s">
-        <v>1703</v>
+        <v>1681</v>
       </c>
       <c r="K467" s="69">
         <v>-31</v>
@@ -40086,7 +40128,7 @@
         <v>461</v>
       </c>
       <c r="Q467" s="70" t="s">
-        <v>1704</v>
+        <v>1682</v>
       </c>
       <c r="V467" s="5" t="s">
         <v>553</v>
@@ -40127,10 +40169,10 @@
         <v>1</v>
       </c>
       <c r="G468" s="73" t="s">
-        <v>1705</v>
+        <v>1683</v>
       </c>
       <c r="H468" s="73" t="s">
-        <v>1706</v>
+        <v>1684</v>
       </c>
       <c r="I468" s="73" t="s">
         <v>1117</v>
@@ -40157,7 +40199,7 @@
         <v>1118</v>
       </c>
       <c r="V468" s="73" t="s">
-        <v>1707</v>
+        <v>1685</v>
       </c>
       <c r="W468" s="73">
         <v>9999999</v>
@@ -40192,13 +40234,13 @@
         <v>1</v>
       </c>
       <c r="G469" s="73" t="s">
-        <v>1708</v>
+        <v>1686</v>
       </c>
       <c r="H469" s="73" t="s">
-        <v>1706</v>
+        <v>1684</v>
       </c>
       <c r="I469" s="73" t="s">
-        <v>1709</v>
+        <v>1687</v>
       </c>
       <c r="K469" s="73">
         <v>-31</v>
@@ -40219,10 +40261,10 @@
         <v>461</v>
       </c>
       <c r="Q469" s="74" t="s">
-        <v>1710</v>
+        <v>1688</v>
       </c>
       <c r="V469" s="73" t="s">
-        <v>1707</v>
+        <v>1685</v>
       </c>
       <c r="W469" s="73">
         <v>9999999</v>
@@ -40257,13 +40299,13 @@
         <v>1</v>
       </c>
       <c r="G470" s="73" t="s">
-        <v>1711</v>
+        <v>1689</v>
       </c>
       <c r="H470" s="73" t="s">
-        <v>1706</v>
+        <v>1684</v>
       </c>
       <c r="I470" s="73" t="s">
-        <v>1340</v>
+        <v>1318</v>
       </c>
       <c r="K470" s="73">
         <v>-31</v>
@@ -40287,7 +40329,7 @@
         <v>857</v>
       </c>
       <c r="V470" s="73" t="s">
-        <v>1707</v>
+        <v>1685</v>
       </c>
       <c r="W470" s="73">
         <v>9999999</v>
@@ -40322,13 +40364,13 @@
         <v>1</v>
       </c>
       <c r="G471" s="73" t="s">
-        <v>1712</v>
+        <v>1690</v>
       </c>
       <c r="H471" s="73" t="s">
-        <v>1706</v>
+        <v>1684</v>
       </c>
       <c r="I471" s="73" t="s">
-        <v>1713</v>
+        <v>1691</v>
       </c>
       <c r="K471" s="73">
         <v>-31</v>
@@ -40349,10 +40391,10 @@
         <v>461</v>
       </c>
       <c r="Q471" s="74" t="s">
-        <v>1714</v>
+        <v>1692</v>
       </c>
       <c r="V471" s="73" t="s">
-        <v>1715</v>
+        <v>1693</v>
       </c>
       <c r="W471" s="73">
         <v>9999999</v>
@@ -40387,13 +40429,13 @@
         <v>1</v>
       </c>
       <c r="G472" s="73" t="s">
-        <v>1716</v>
+        <v>1694</v>
       </c>
       <c r="H472" s="73" t="s">
-        <v>1706</v>
+        <v>1684</v>
       </c>
       <c r="I472" s="73" t="s">
-        <v>1717</v>
+        <v>1695</v>
       </c>
       <c r="K472" s="73">
         <v>-31</v>
@@ -40417,7 +40459,7 @@
         <v>858</v>
       </c>
       <c r="V472" s="73" t="s">
-        <v>1715</v>
+        <v>1693</v>
       </c>
       <c r="W472" s="73">
         <v>9999999</v>
@@ -40452,13 +40494,13 @@
         <v>1</v>
       </c>
       <c r="G473" s="73" t="s">
-        <v>1718</v>
+        <v>1696</v>
       </c>
       <c r="H473" s="73" t="s">
-        <v>1706</v>
+        <v>1684</v>
       </c>
       <c r="I473" s="73" t="s">
-        <v>1719</v>
+        <v>1697</v>
       </c>
       <c r="K473" s="73">
         <v>-31</v>
@@ -40479,10 +40521,10 @@
         <v>461</v>
       </c>
       <c r="Q473" s="74" t="s">
-        <v>1720</v>
+        <v>1698</v>
       </c>
       <c r="V473" s="73" t="s">
-        <v>1715</v>
+        <v>1693</v>
       </c>
       <c r="W473" s="73">
         <v>9999999</v>
@@ -40517,13 +40559,13 @@
         <v>1</v>
       </c>
       <c r="G474" s="75" t="s">
-        <v>1721</v>
+        <v>1699</v>
       </c>
       <c r="H474" s="75" t="s">
-        <v>1706</v>
+        <v>1684</v>
       </c>
       <c r="I474" s="75" t="s">
-        <v>1722</v>
+        <v>1700</v>
       </c>
       <c r="K474" s="75">
         <v>-31</v>
@@ -40544,10 +40586,10 @@
         <v>461</v>
       </c>
       <c r="Q474" s="76" t="s">
-        <v>1723</v>
+        <v>1701</v>
       </c>
       <c r="V474" s="73" t="s">
-        <v>1715</v>
+        <v>1693</v>
       </c>
       <c r="W474" s="75">
         <v>9999999</v>
@@ -40582,13 +40624,13 @@
         <v>1</v>
       </c>
       <c r="G475" s="75" t="s">
-        <v>1724</v>
+        <v>1702</v>
       </c>
       <c r="H475" s="75" t="s">
-        <v>1706</v>
+        <v>1684</v>
       </c>
       <c r="I475" s="75" t="s">
-        <v>1725</v>
+        <v>1703</v>
       </c>
       <c r="K475" s="75">
         <v>-31</v>
@@ -40609,10 +40651,10 @@
         <v>461</v>
       </c>
       <c r="Q475" s="76" t="s">
-        <v>1726</v>
+        <v>1704</v>
       </c>
       <c r="V475" s="73" t="s">
-        <v>1715</v>
+        <v>1693</v>
       </c>
       <c r="W475" s="75">
         <v>9999999</v>
@@ -40648,7 +40690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
@@ -40664,7 +40706,7 @@
         <v>402</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1157</v>
+        <v>1136</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>403</v>
@@ -40681,7 +40723,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1186</v>
+        <v>1165</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -40698,7 +40740,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1187</v>
+        <v>1166</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -40712,7 +40754,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1188</v>
+        <v>1167</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -40726,7 +40768,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1189</v>
+        <v>1168</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -40880,7 +40922,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1190</v>
+        <v>1169</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -41034,7 +41076,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>1255</v>
+        <v>1233</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
@@ -41049,7 +41091,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>1246</v>
+        <v>1224</v>
       </c>
       <c r="C28" s="12">
         <v>1</v>
@@ -41064,7 +41106,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>1247</v>
+        <v>1225</v>
       </c>
       <c r="C29" s="12">
         <v>1</v>
@@ -41079,7 +41121,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>1256</v>
+        <v>1234</v>
       </c>
       <c r="C30" s="12">
         <v>1</v>
@@ -41094,7 +41136,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>1248</v>
+        <v>1226</v>
       </c>
       <c r="C31" s="12">
         <v>1</v>
@@ -41109,7 +41151,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>1249</v>
+        <v>1227</v>
       </c>
       <c r="C32" s="12">
         <v>1</v>
@@ -41124,7 +41166,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>1257</v>
+        <v>1235</v>
       </c>
       <c r="C33" s="12">
         <v>1</v>
@@ -41139,7 +41181,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>1250</v>
+        <v>1228</v>
       </c>
       <c r="C34" s="12">
         <v>1</v>
@@ -41154,7 +41196,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>1251</v>
+        <v>1229</v>
       </c>
       <c r="C35" s="12">
         <v>1</v>
@@ -41169,7 +41211,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>1258</v>
+        <v>1236</v>
       </c>
       <c r="C36" s="12">
         <v>1</v>
@@ -41184,7 +41226,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>1252</v>
+        <v>1230</v>
       </c>
       <c r="C37" s="12">
         <v>1</v>
@@ -41199,7 +41241,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>1253</v>
+        <v>1231</v>
       </c>
       <c r="C38" s="12">
         <v>1</v>
@@ -41214,7 +41256,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>1266</v>
+        <v>1244</v>
       </c>
       <c r="C39" s="12">
         <v>1</v>
@@ -41228,7 +41270,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>1264</v>
+        <v>1242</v>
       </c>
       <c r="C40" s="12">
         <v>1</v>
@@ -41242,7 +41284,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>1265</v>
+        <v>1243</v>
       </c>
       <c r="C41" s="12">
         <v>1</v>
@@ -41256,7 +41298,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>1323</v>
+        <v>1301</v>
       </c>
       <c r="C42" s="12">
         <v>1</v>
@@ -41270,7 +41312,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>1379</v>
+        <v>1357</v>
       </c>
       <c r="C43" s="12">
         <v>1</v>
@@ -41284,7 +41326,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>1380</v>
+        <v>1358</v>
       </c>
       <c r="C44" s="12">
         <v>1</v>
@@ -41298,7 +41340,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="51" t="s">
-        <v>1420</v>
+        <v>1398</v>
       </c>
       <c r="C45" s="50">
         <v>1</v>
@@ -41312,7 +41354,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="51" t="s">
-        <v>1421</v>
+        <v>1399</v>
       </c>
       <c r="C46" s="50">
         <v>1</v>
@@ -41326,7 +41368,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="51" t="s">
-        <v>1422</v>
+        <v>1400</v>
       </c>
       <c r="C47" s="50">
         <v>1</v>
@@ -41340,7 +41382,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="56" t="s">
-        <v>1469</v>
+        <v>1447</v>
       </c>
       <c r="C48" s="55">
         <v>1</v>
@@ -41354,7 +41396,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="64" t="s">
-        <v>1502</v>
+        <v>1480</v>
       </c>
       <c r="C49" s="63">
         <v>1</v>
@@ -41368,7 +41410,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="66" t="s">
-        <v>1516</v>
+        <v>1494</v>
       </c>
       <c r="C50" s="65">
         <v>1</v>
@@ -41382,7 +41424,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="66" t="s">
-        <v>1517</v>
+        <v>1495</v>
       </c>
       <c r="C51" s="65">
         <v>1</v>
@@ -41396,7 +41438,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="66" t="s">
-        <v>1518</v>
+        <v>1496</v>
       </c>
       <c r="C52" s="65">
         <v>1</v>
@@ -41410,7 +41452,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="79" t="s">
-        <v>1727</v>
+        <v>1705</v>
       </c>
       <c r="C53" s="78">
         <v>1</v>
@@ -41424,7 +41466,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="79" t="s">
-        <v>1728</v>
+        <v>1706</v>
       </c>
       <c r="C54" s="78">
         <v>1</v>
@@ -41438,7 +41480,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="79" t="s">
-        <v>1729</v>
+        <v>1707</v>
       </c>
       <c r="C55" s="78">
         <v>1</v>
@@ -41452,7 +41494,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="79" t="s">
-        <v>1730</v>
+        <v>1708</v>
       </c>
       <c r="C56" s="78">
         <v>1</v>
@@ -41466,7 +41508,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="79" t="s">
-        <v>1731</v>
+        <v>1709</v>
       </c>
       <c r="C57" s="78">
         <v>1</v>
@@ -41480,7 +41522,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="79" t="s">
-        <v>1732</v>
+        <v>1710</v>
       </c>
       <c r="C58" s="78">
         <v>1</v>
@@ -41494,7 +41536,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="79" t="s">
-        <v>1733</v>
+        <v>1711</v>
       </c>
       <c r="C59" s="78">
         <v>1</v>
@@ -41508,7 +41550,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="79" t="s">
-        <v>1734</v>
+        <v>1712</v>
       </c>
       <c r="C60" s="78">
         <v>1</v>
@@ -41522,7 +41564,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="79" t="s">
-        <v>1735</v>
+        <v>1713</v>
       </c>
       <c r="C61" s="78">
         <v>1</v>
@@ -41536,7 +41578,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="79" t="s">
-        <v>1736</v>
+        <v>1714</v>
       </c>
       <c r="C62" s="78">
         <v>1</v>
@@ -41550,7 +41592,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="79" t="s">
-        <v>1737</v>
+        <v>1715</v>
       </c>
       <c r="C63" s="78">
         <v>1</v>
@@ -41564,7 +41606,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="79" t="s">
-        <v>1738</v>
+        <v>1716</v>
       </c>
       <c r="C64" s="78">
         <v>1</v>
@@ -41578,7 +41620,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="79" t="s">
-        <v>1739</v>
+        <v>1717</v>
       </c>
       <c r="C65" s="78">
         <v>1</v>
@@ -41592,7 +41634,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="79" t="s">
-        <v>1740</v>
+        <v>1718</v>
       </c>
       <c r="C66" s="78">
         <v>1</v>
@@ -41657,7 +41699,7 @@
         <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1350</v>
+        <v>1328</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>414</v>
@@ -43255,7 +43297,7 @@
         <v>111</v>
       </c>
       <c r="G25" s="34" t="s">
-        <v>1159</v>
+        <v>1138</v>
       </c>
       <c r="H25" s="11">
         <v>19800</v>
@@ -43941,7 +43983,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>1168</v>
+        <v>1147</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>488</v>
@@ -43988,7 +44030,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>1169</v>
+        <v>1148</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>488</v>
@@ -44035,7 +44077,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>1170</v>
+        <v>1149</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>492</v>

--- a/config_11.24/shoping_config_cjj.xlsx
+++ b/config_11.24/shoping_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3903" uniqueCount="1750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3931" uniqueCount="1768">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7557,6 +7557,78 @@
   </si>
   <si>
     <t>76880000,20,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>498元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","40万鱼币","传说宝箱*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_gej_cs",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,400000,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>198元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","30万鱼币","传说宝箱*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,300000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>98元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","20万鱼币","史诗宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_gej_ss",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,200000,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>48元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","10万鱼币","稀有宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_gej_xy",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,100000,3,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -7628,7 +7700,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7731,6 +7803,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -7774,7 +7858,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8014,6 +8098,45 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="19" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="19" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8479,7 +8602,7 @@
   <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8627,9 +8750,6 @@
       <c r="D2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="60">
-        <v>10330</v>
-      </c>
       <c r="G2" s="2">
         <v>10330</v>
       </c>
@@ -8710,9 +8830,6 @@
       <c r="D3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="60">
-        <v>85</v>
-      </c>
       <c r="G3" s="2">
         <v>85</v>
       </c>
@@ -8793,9 +8910,6 @@
       <c r="D4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="60">
-        <v>86</v>
-      </c>
       <c r="G4" s="2">
         <v>86</v>
       </c>
@@ -8876,9 +8990,6 @@
       <c r="D5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="60">
-        <v>87</v>
-      </c>
       <c r="G5" s="2">
         <v>87</v>
       </c>
@@ -8959,9 +9070,6 @@
       <c r="D6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="60">
-        <v>88</v>
-      </c>
       <c r="G6" s="2">
         <v>88</v>
       </c>
@@ -9042,9 +9150,6 @@
       <c r="D7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="60">
-        <v>89</v>
-      </c>
       <c r="G7" s="2">
         <v>89</v>
       </c>
@@ -9125,9 +9230,6 @@
       <c r="D8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="60">
-        <v>109</v>
-      </c>
       <c r="G8" s="2">
         <v>109</v>
       </c>
@@ -9208,9 +9310,6 @@
       <c r="D9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="60">
-        <v>10044</v>
-      </c>
       <c r="G9" s="2">
         <v>10044</v>
       </c>
@@ -9292,9 +9391,7 @@
         <v>43</v>
       </c>
       <c r="E10" s="23"/>
-      <c r="F10" s="60">
-        <v>10045</v>
-      </c>
+      <c r="F10" s="60"/>
       <c r="G10" s="11">
         <v>10045</v>
       </c>
@@ -9378,9 +9475,7 @@
       <c r="E11" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="60">
-        <v>90</v>
-      </c>
+      <c r="F11" s="60"/>
       <c r="G11" s="11">
         <v>90</v>
       </c>
@@ -10378,9 +10473,7 @@
         <v>43</v>
       </c>
       <c r="E24" s="23"/>
-      <c r="F24" s="60">
-        <v>10189</v>
-      </c>
+      <c r="F24" s="60"/>
       <c r="G24" s="11">
         <v>10189</v>
       </c>
@@ -10458,13 +10551,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM475"/>
+  <dimension ref="A1:AM479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="V320" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A328" sqref="A328:XFD337"/>
+      <selection pane="bottomRight" activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -14244,283 +14337,283 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="19">
+    <row r="67" spans="1:34" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="82">
         <v>66</v>
       </c>
-      <c r="B67" s="19">
+      <c r="B67" s="82">
         <v>85</v>
       </c>
-      <c r="D67" s="19">
+      <c r="D67" s="82">
         <v>2</v>
       </c>
-      <c r="F67" s="19">
-        <v>1</v>
-      </c>
-      <c r="G67" s="19" t="s">
+      <c r="F67" s="82">
+        <v>0</v>
+      </c>
+      <c r="G67" s="82" t="s">
         <v>235</v>
       </c>
-      <c r="K67" s="19">
+      <c r="K67" s="82">
         <v>-4</v>
       </c>
-      <c r="L67" s="19">
-        <v>0</v>
-      </c>
-      <c r="M67" s="19">
-        <v>0</v>
-      </c>
-      <c r="N67" s="19" t="s">
+      <c r="L67" s="82">
+        <v>0</v>
+      </c>
+      <c r="M67" s="82">
+        <v>0</v>
+      </c>
+      <c r="N67" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="O67" s="19">
+      <c r="O67" s="82">
         <v>1500</v>
       </c>
-      <c r="P67" s="19" t="s">
+      <c r="P67" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="Q67" s="40" t="s">
+      <c r="Q67" s="83" t="s">
         <v>1487</v>
       </c>
-      <c r="V67" s="19" t="s">
+      <c r="V67" s="82" t="s">
         <v>550</v>
       </c>
-      <c r="W67" s="38" t="s">
+      <c r="W67" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="X67" s="39">
-        <v>0</v>
-      </c>
-      <c r="Y67" s="19">
+      <c r="X67" s="85">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="82">
         <v>2552233600</v>
       </c>
-      <c r="AG67" s="19">
-        <v>1</v>
-      </c>
-      <c r="AH67" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="19">
+      <c r="AG67" s="82">
+        <v>1</v>
+      </c>
+      <c r="AH67" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="82">
         <v>67</v>
       </c>
-      <c r="B68" s="19">
+      <c r="B68" s="82">
         <v>86</v>
       </c>
-      <c r="D68" s="19">
+      <c r="D68" s="82">
         <v>3</v>
       </c>
-      <c r="F68" s="19">
-        <v>1</v>
-      </c>
-      <c r="G68" s="19" t="s">
+      <c r="F68" s="82">
+        <v>0</v>
+      </c>
+      <c r="G68" s="82" t="s">
         <v>237</v>
       </c>
-      <c r="K68" s="19">
+      <c r="K68" s="82">
         <v>-4</v>
       </c>
-      <c r="L68" s="19">
-        <v>0</v>
-      </c>
-      <c r="M68" s="19">
-        <v>0</v>
-      </c>
-      <c r="N68" s="19" t="s">
+      <c r="L68" s="82">
+        <v>0</v>
+      </c>
+      <c r="M68" s="82">
+        <v>0</v>
+      </c>
+      <c r="N68" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="O68" s="19">
+      <c r="O68" s="82">
         <v>3000</v>
       </c>
-      <c r="P68" s="19" t="s">
+      <c r="P68" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="Q68" s="40" t="s">
+      <c r="Q68" s="83" t="s">
         <v>1488</v>
       </c>
-      <c r="V68" s="19" t="s">
+      <c r="V68" s="82" t="s">
         <v>550</v>
       </c>
-      <c r="W68" s="38" t="s">
+      <c r="W68" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="X68" s="39">
-        <v>0</v>
-      </c>
-      <c r="Y68" s="19">
+      <c r="X68" s="85">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="82">
         <v>2552233600</v>
       </c>
-      <c r="AG68" s="19">
-        <v>1</v>
-      </c>
-      <c r="AH68" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="19">
+      <c r="AG68" s="82">
+        <v>1</v>
+      </c>
+      <c r="AH68" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="82">
         <v>68</v>
       </c>
-      <c r="B69" s="19">
+      <c r="B69" s="82">
         <v>87</v>
       </c>
-      <c r="D69" s="19">
+      <c r="D69" s="82">
         <v>4</v>
       </c>
-      <c r="F69" s="19">
-        <v>1</v>
-      </c>
-      <c r="G69" s="19" t="s">
+      <c r="F69" s="82">
+        <v>0</v>
+      </c>
+      <c r="G69" s="82" t="s">
         <v>239</v>
       </c>
-      <c r="K69" s="19">
+      <c r="K69" s="82">
         <v>-4</v>
       </c>
-      <c r="L69" s="19">
-        <v>0</v>
-      </c>
-      <c r="M69" s="19">
-        <v>0</v>
-      </c>
-      <c r="N69" s="19" t="s">
+      <c r="L69" s="82">
+        <v>0</v>
+      </c>
+      <c r="M69" s="82">
+        <v>0</v>
+      </c>
+      <c r="N69" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="O69" s="19">
+      <c r="O69" s="82">
         <v>5000</v>
       </c>
-      <c r="P69" s="19" t="s">
+      <c r="P69" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="Q69" s="40" t="s">
+      <c r="Q69" s="83" t="s">
         <v>721</v>
       </c>
-      <c r="V69" s="19" t="s">
+      <c r="V69" s="82" t="s">
         <v>550</v>
       </c>
-      <c r="W69" s="38" t="s">
+      <c r="W69" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="X69" s="39">
-        <v>0</v>
-      </c>
-      <c r="Y69" s="19">
+      <c r="X69" s="85">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="82">
         <v>2552233600</v>
       </c>
-      <c r="AG69" s="19">
-        <v>1</v>
-      </c>
-      <c r="AH69" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="19">
+      <c r="AG69" s="82">
+        <v>1</v>
+      </c>
+      <c r="AH69" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:34" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="82">
         <v>69</v>
       </c>
-      <c r="B70" s="19">
+      <c r="B70" s="82">
         <v>88</v>
       </c>
-      <c r="D70" s="19">
+      <c r="D70" s="82">
         <v>5</v>
       </c>
-      <c r="F70" s="19">
-        <v>1</v>
-      </c>
-      <c r="G70" s="19" t="s">
+      <c r="F70" s="82">
+        <v>0</v>
+      </c>
+      <c r="G70" s="82" t="s">
         <v>241</v>
       </c>
-      <c r="K70" s="19">
+      <c r="K70" s="82">
         <v>-4</v>
       </c>
-      <c r="L70" s="19">
-        <v>0</v>
-      </c>
-      <c r="M70" s="19">
-        <v>0</v>
-      </c>
-      <c r="N70" s="19" t="s">
+      <c r="L70" s="82">
+        <v>0</v>
+      </c>
+      <c r="M70" s="82">
+        <v>0</v>
+      </c>
+      <c r="N70" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="O70" s="19">
+      <c r="O70" s="82">
         <v>9800</v>
       </c>
-      <c r="P70" s="19" t="s">
+      <c r="P70" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="Q70" s="40" t="s">
+      <c r="Q70" s="83" t="s">
         <v>722</v>
       </c>
-      <c r="V70" s="19" t="s">
+      <c r="V70" s="82" t="s">
         <v>550</v>
       </c>
-      <c r="W70" s="38" t="s">
+      <c r="W70" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="X70" s="39">
-        <v>0</v>
-      </c>
-      <c r="Y70" s="19">
+      <c r="X70" s="85">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="82">
         <v>2552233600</v>
       </c>
-      <c r="AG70" s="19">
-        <v>1</v>
-      </c>
-      <c r="AH70" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="19">
+      <c r="AG70" s="82">
+        <v>1</v>
+      </c>
+      <c r="AH70" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="82">
         <v>70</v>
       </c>
-      <c r="B71" s="19">
+      <c r="B71" s="82">
         <v>89</v>
       </c>
-      <c r="D71" s="19">
+      <c r="D71" s="82">
         <v>6</v>
       </c>
-      <c r="F71" s="19">
-        <v>1</v>
-      </c>
-      <c r="G71" s="19" t="s">
+      <c r="F71" s="82">
+        <v>0</v>
+      </c>
+      <c r="G71" s="82" t="s">
         <v>242</v>
       </c>
-      <c r="K71" s="19">
+      <c r="K71" s="82">
         <v>-4</v>
       </c>
-      <c r="L71" s="19">
-        <v>0</v>
-      </c>
-      <c r="M71" s="19">
-        <v>0</v>
-      </c>
-      <c r="N71" s="19" t="s">
+      <c r="L71" s="82">
+        <v>0</v>
+      </c>
+      <c r="M71" s="82">
+        <v>0</v>
+      </c>
+      <c r="N71" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="O71" s="19">
+      <c r="O71" s="82">
         <v>49800</v>
       </c>
-      <c r="P71" s="19" t="s">
+      <c r="P71" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="Q71" s="40" t="s">
+      <c r="Q71" s="83" t="s">
         <v>1489</v>
       </c>
-      <c r="V71" s="19" t="s">
+      <c r="V71" s="82" t="s">
         <v>550</v>
       </c>
-      <c r="W71" s="38" t="s">
+      <c r="W71" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="X71" s="39">
-        <v>0</v>
-      </c>
-      <c r="Y71" s="19">
+      <c r="X71" s="85">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="82">
         <v>2552233600</v>
       </c>
-      <c r="AG71" s="19">
-        <v>1</v>
-      </c>
-      <c r="AH71" s="19">
+      <c r="AG71" s="82">
+        <v>1</v>
+      </c>
+      <c r="AH71" s="82">
         <v>1</v>
       </c>
     </row>
@@ -15806,56 +15899,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="5">
+    <row r="94" spans="1:34" s="86" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="86">
         <v>93</v>
       </c>
-      <c r="B94" s="5">
+      <c r="B94" s="86">
         <v>109</v>
       </c>
-      <c r="F94" s="5">
-        <v>1</v>
-      </c>
-      <c r="G94" s="5" t="s">
+      <c r="F94" s="86">
+        <v>0</v>
+      </c>
+      <c r="G94" s="86" t="s">
         <v>266</v>
       </c>
-      <c r="K94" s="5">
+      <c r="K94" s="86">
         <v>-4</v>
       </c>
-      <c r="L94" s="5">
-        <v>0</v>
-      </c>
-      <c r="M94" s="5">
-        <v>0</v>
-      </c>
-      <c r="N94" s="5" t="s">
+      <c r="L94" s="86">
+        <v>0</v>
+      </c>
+      <c r="M94" s="86">
+        <v>0</v>
+      </c>
+      <c r="N94" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="O94" s="5">
+      <c r="O94" s="86">
         <v>100000</v>
       </c>
-      <c r="P94" s="5" t="s">
+      <c r="P94" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="Q94" s="10" t="s">
+      <c r="Q94" s="87" t="s">
         <v>744</v>
       </c>
-      <c r="V94" s="5" t="s">
+      <c r="V94" s="86" t="s">
         <v>550</v>
       </c>
-      <c r="W94" s="14" t="s">
+      <c r="W94" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="X94" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y94" s="5">
+      <c r="X94" s="86">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="86">
         <v>2552233600</v>
       </c>
-      <c r="AG94" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH94" s="5">
+      <c r="AG94" s="86">
+        <v>1</v>
+      </c>
+      <c r="AH94" s="86">
         <v>1</v>
       </c>
     </row>
@@ -17837,115 +17930,115 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="19">
+    <row r="128" spans="1:34" s="86" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="86">
         <v>127</v>
       </c>
-      <c r="B128" s="19">
+      <c r="B128" s="86">
         <v>10044</v>
       </c>
-      <c r="D128" s="19">
+      <c r="D128" s="86">
         <v>108</v>
       </c>
-      <c r="F128" s="19">
-        <v>1</v>
-      </c>
-      <c r="G128" s="19" t="s">
+      <c r="F128" s="86">
+        <v>0</v>
+      </c>
+      <c r="G128" s="86" t="s">
         <v>332</v>
       </c>
-      <c r="K128" s="19">
+      <c r="K128" s="86">
         <v>-10</v>
       </c>
-      <c r="L128" s="19">
-        <v>0</v>
-      </c>
-      <c r="M128" s="19">
-        <v>0</v>
-      </c>
-      <c r="N128" s="19" t="s">
+      <c r="L128" s="86">
+        <v>0</v>
+      </c>
+      <c r="M128" s="86">
+        <v>0</v>
+      </c>
+      <c r="N128" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="O128" s="19">
+      <c r="O128" s="86">
         <v>99800</v>
       </c>
-      <c r="P128" s="19" t="s">
+      <c r="P128" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="Q128" s="40" t="s">
+      <c r="Q128" s="87" t="s">
         <v>1490</v>
       </c>
-      <c r="V128" s="19" t="s">
+      <c r="V128" s="86" t="s">
         <v>550</v>
       </c>
-      <c r="W128" s="38" t="s">
+      <c r="W128" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="X128" s="39">
-        <v>0</v>
-      </c>
-      <c r="Y128" s="19">
+      <c r="X128" s="89">
+        <v>0</v>
+      </c>
+      <c r="Y128" s="86">
         <v>2552233600</v>
       </c>
-      <c r="AG128" s="19">
-        <v>1</v>
-      </c>
-      <c r="AH128" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="19">
+      <c r="AG128" s="86">
+        <v>1</v>
+      </c>
+      <c r="AH128" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:38" s="86" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="86">
         <v>128</v>
       </c>
-      <c r="B129" s="19">
+      <c r="B129" s="86">
         <v>10045</v>
       </c>
-      <c r="D129" s="19">
+      <c r="D129" s="86">
         <v>110</v>
       </c>
-      <c r="F129" s="19">
-        <v>1</v>
-      </c>
-      <c r="G129" s="19" t="s">
+      <c r="F129" s="86">
+        <v>0</v>
+      </c>
+      <c r="G129" s="86" t="s">
         <v>540</v>
       </c>
-      <c r="K129" s="19">
+      <c r="K129" s="86">
         <v>-11</v>
       </c>
-      <c r="L129" s="19">
-        <v>0</v>
-      </c>
-      <c r="M129" s="19">
-        <v>0</v>
-      </c>
-      <c r="N129" s="19" t="s">
+      <c r="L129" s="86">
+        <v>0</v>
+      </c>
+      <c r="M129" s="86">
+        <v>0</v>
+      </c>
+      <c r="N129" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="O129" s="19">
+      <c r="O129" s="86">
         <v>249800</v>
       </c>
-      <c r="P129" s="19" t="s">
+      <c r="P129" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="Q129" s="40" t="s">
+      <c r="Q129" s="87" t="s">
         <v>1491</v>
       </c>
-      <c r="V129" s="19" t="s">
+      <c r="V129" s="86" t="s">
         <v>550</v>
       </c>
-      <c r="W129" s="38" t="s">
+      <c r="W129" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="X129" s="39">
-        <v>0</v>
-      </c>
-      <c r="Y129" s="19">
+      <c r="X129" s="89">
+        <v>0</v>
+      </c>
+      <c r="Y129" s="86">
         <v>2552233600</v>
       </c>
-      <c r="AG129" s="19">
-        <v>1</v>
-      </c>
-      <c r="AH129" s="19">
+      <c r="AG129" s="86">
+        <v>1</v>
+      </c>
+      <c r="AH129" s="86">
         <v>1</v>
       </c>
     </row>
@@ -27178,59 +27271,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A273" s="5">
+    <row r="273" spans="1:39" s="86" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A273" s="86">
         <v>272</v>
       </c>
-      <c r="B273" s="5">
+      <c r="B273" s="86">
         <v>10189</v>
       </c>
-      <c r="D273" s="11">
+      <c r="D273" s="92">
         <v>111</v>
       </c>
-      <c r="F273" s="5">
-        <v>1</v>
-      </c>
-      <c r="G273" s="5" t="s">
+      <c r="F273" s="86">
+        <v>0</v>
+      </c>
+      <c r="G273" s="86" t="s">
         <v>543</v>
       </c>
-      <c r="K273" s="5">
+      <c r="K273" s="86">
         <v>-10</v>
       </c>
-      <c r="L273" s="5">
-        <v>0</v>
-      </c>
-      <c r="M273" s="5">
-        <v>0</v>
-      </c>
-      <c r="N273" s="5" t="s">
+      <c r="L273" s="86">
+        <v>0</v>
+      </c>
+      <c r="M273" s="86">
+        <v>0</v>
+      </c>
+      <c r="N273" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="O273" s="5">
+      <c r="O273" s="86">
         <v>19800</v>
       </c>
-      <c r="P273" s="5" t="s">
+      <c r="P273" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="Q273" s="10" t="s">
+      <c r="Q273" s="87" t="s">
         <v>1492</v>
       </c>
-      <c r="V273" s="5" t="s">
+      <c r="V273" s="86" t="s">
         <v>550</v>
       </c>
-      <c r="W273" s="14" t="s">
+      <c r="W273" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="X273" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y273" s="5">
+      <c r="X273" s="89">
+        <v>0</v>
+      </c>
+      <c r="Y273" s="86">
         <v>2552233600</v>
       </c>
-      <c r="AG273" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH273" s="5">
+      <c r="AG273" s="86">
+        <v>1</v>
+      </c>
+      <c r="AH273" s="86">
         <v>1</v>
       </c>
     </row>
@@ -36636,59 +36729,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A414" s="5">
+    <row r="414" spans="1:38" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A414" s="82">
         <v>413</v>
       </c>
-      <c r="B414" s="5">
+      <c r="B414" s="82">
         <v>10330</v>
       </c>
-      <c r="D414" s="5">
-        <v>1</v>
-      </c>
-      <c r="F414" s="5">
-        <v>1</v>
-      </c>
-      <c r="G414" s="5" t="s">
+      <c r="D414" s="82">
+        <v>1</v>
+      </c>
+      <c r="F414" s="82">
+        <v>0</v>
+      </c>
+      <c r="G414" s="82" t="s">
         <v>1485</v>
       </c>
-      <c r="K414" s="5">
+      <c r="K414" s="82">
         <v>-4</v>
       </c>
-      <c r="L414" s="5">
-        <v>0</v>
-      </c>
-      <c r="M414" s="5">
-        <v>0</v>
-      </c>
-      <c r="N414" s="5" t="s">
+      <c r="L414" s="82">
+        <v>0</v>
+      </c>
+      <c r="M414" s="82">
+        <v>0</v>
+      </c>
+      <c r="N414" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="O414" s="5">
+      <c r="O414" s="82">
         <v>600</v>
       </c>
-      <c r="P414" s="5" t="s">
+      <c r="P414" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="Q414" s="10" t="s">
+      <c r="Q414" s="83" t="s">
         <v>1486</v>
       </c>
-      <c r="V414" s="5" t="s">
+      <c r="V414" s="82" t="s">
         <v>550</v>
       </c>
-      <c r="W414" s="14" t="s">
+      <c r="W414" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="X414" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y414" s="5">
+      <c r="X414" s="85">
+        <v>0</v>
+      </c>
+      <c r="Y414" s="82">
         <v>2552233600</v>
       </c>
-      <c r="AG414" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH414" s="5">
+      <c r="AG414" s="82">
+        <v>1</v>
+      </c>
+      <c r="AH414" s="82">
         <v>1</v>
       </c>
     </row>
@@ -36835,6 +36928,8 @@
       <c r="B417" s="5">
         <v>10333</v>
       </c>
+      <c r="D417" s="91"/>
+      <c r="E417" s="90"/>
       <c r="F417" s="5">
         <v>1</v>
       </c>
@@ -36903,6 +36998,8 @@
       <c r="B418" s="5">
         <v>10334</v>
       </c>
+      <c r="D418" s="91"/>
+      <c r="E418" s="90"/>
       <c r="F418" s="5">
         <v>1</v>
       </c>
@@ -40675,6 +40772,266 @@
         <v>1</v>
       </c>
       <c r="AL475" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:38" s="80" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A476" s="80">
+        <v>475</v>
+      </c>
+      <c r="B476" s="80">
+        <v>10392</v>
+      </c>
+      <c r="F476" s="80">
+        <v>1</v>
+      </c>
+      <c r="G476" s="80" t="s">
+        <v>1750</v>
+      </c>
+      <c r="H476" s="80" t="s">
+        <v>1751</v>
+      </c>
+      <c r="I476" s="80" t="s">
+        <v>1752</v>
+      </c>
+      <c r="K476" s="80">
+        <v>-31</v>
+      </c>
+      <c r="L476" s="80">
+        <v>0</v>
+      </c>
+      <c r="M476" s="80">
+        <v>0</v>
+      </c>
+      <c r="N476" s="80" t="s">
+        <v>1753</v>
+      </c>
+      <c r="O476" s="80">
+        <v>49800</v>
+      </c>
+      <c r="P476" s="80" t="s">
+        <v>1754</v>
+      </c>
+      <c r="Q476" s="81" t="s">
+        <v>1755</v>
+      </c>
+      <c r="V476" s="80" t="s">
+        <v>1756</v>
+      </c>
+      <c r="W476" s="80">
+        <v>9999999</v>
+      </c>
+      <c r="X476" s="80">
+        <v>1606176000</v>
+      </c>
+      <c r="Y476" s="80">
+        <v>1606751999</v>
+      </c>
+      <c r="AG476" s="80">
+        <v>1</v>
+      </c>
+      <c r="AH476" s="80">
+        <v>1</v>
+      </c>
+      <c r="AK476" s="80">
+        <v>1</v>
+      </c>
+      <c r="AL476" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:38" s="80" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A477" s="80">
+        <v>476</v>
+      </c>
+      <c r="B477" s="80">
+        <v>10393</v>
+      </c>
+      <c r="F477" s="80">
+        <v>1</v>
+      </c>
+      <c r="G477" s="80" t="s">
+        <v>1750</v>
+      </c>
+      <c r="H477" s="80" t="s">
+        <v>1757</v>
+      </c>
+      <c r="I477" s="80" t="s">
+        <v>1758</v>
+      </c>
+      <c r="K477" s="80">
+        <v>-31</v>
+      </c>
+      <c r="L477" s="80">
+        <v>0</v>
+      </c>
+      <c r="M477" s="80">
+        <v>0</v>
+      </c>
+      <c r="N477" s="80" t="s">
+        <v>1753</v>
+      </c>
+      <c r="O477" s="80">
+        <v>19800</v>
+      </c>
+      <c r="P477" s="80" t="s">
+        <v>1754</v>
+      </c>
+      <c r="Q477" s="81" t="s">
+        <v>1759</v>
+      </c>
+      <c r="V477" s="80" t="s">
+        <v>1756</v>
+      </c>
+      <c r="W477" s="80">
+        <v>9999999</v>
+      </c>
+      <c r="X477" s="80">
+        <v>1606176000</v>
+      </c>
+      <c r="Y477" s="80">
+        <v>1606751999</v>
+      </c>
+      <c r="AG477" s="80">
+        <v>1</v>
+      </c>
+      <c r="AH477" s="80">
+        <v>1</v>
+      </c>
+      <c r="AK477" s="80">
+        <v>1</v>
+      </c>
+      <c r="AL477" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:38" s="80" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A478" s="80">
+        <v>477</v>
+      </c>
+      <c r="B478" s="80">
+        <v>10394</v>
+      </c>
+      <c r="F478" s="80">
+        <v>1</v>
+      </c>
+      <c r="G478" s="80" t="s">
+        <v>1750</v>
+      </c>
+      <c r="H478" s="80" t="s">
+        <v>1760</v>
+      </c>
+      <c r="I478" s="80" t="s">
+        <v>1761</v>
+      </c>
+      <c r="K478" s="80">
+        <v>-31</v>
+      </c>
+      <c r="L478" s="80">
+        <v>0</v>
+      </c>
+      <c r="M478" s="80">
+        <v>0</v>
+      </c>
+      <c r="N478" s="80" t="s">
+        <v>1753</v>
+      </c>
+      <c r="O478" s="80">
+        <v>9800</v>
+      </c>
+      <c r="P478" s="80" t="s">
+        <v>1762</v>
+      </c>
+      <c r="Q478" s="81" t="s">
+        <v>1763</v>
+      </c>
+      <c r="V478" s="80" t="s">
+        <v>553</v>
+      </c>
+      <c r="W478" s="80">
+        <v>9999999</v>
+      </c>
+      <c r="X478" s="80">
+        <v>1606176000</v>
+      </c>
+      <c r="Y478" s="80">
+        <v>1606751999</v>
+      </c>
+      <c r="AG478" s="80">
+        <v>1</v>
+      </c>
+      <c r="AH478" s="80">
+        <v>1</v>
+      </c>
+      <c r="AK478" s="80">
+        <v>1</v>
+      </c>
+      <c r="AL478" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:38" s="80" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A479" s="80">
+        <v>478</v>
+      </c>
+      <c r="B479" s="80">
+        <v>10395</v>
+      </c>
+      <c r="F479" s="80">
+        <v>1</v>
+      </c>
+      <c r="G479" s="80" t="s">
+        <v>1750</v>
+      </c>
+      <c r="H479" s="80" t="s">
+        <v>1764</v>
+      </c>
+      <c r="I479" s="80" t="s">
+        <v>1765</v>
+      </c>
+      <c r="K479" s="80">
+        <v>-31</v>
+      </c>
+      <c r="L479" s="80">
+        <v>0</v>
+      </c>
+      <c r="M479" s="80">
+        <v>0</v>
+      </c>
+      <c r="N479" s="80" t="s">
+        <v>1753</v>
+      </c>
+      <c r="O479" s="80">
+        <v>4800</v>
+      </c>
+      <c r="P479" s="80" t="s">
+        <v>1766</v>
+      </c>
+      <c r="Q479" s="81" t="s">
+        <v>1767</v>
+      </c>
+      <c r="V479" s="80" t="s">
+        <v>1756</v>
+      </c>
+      <c r="W479" s="80">
+        <v>9999999</v>
+      </c>
+      <c r="X479" s="80">
+        <v>1606176000</v>
+      </c>
+      <c r="Y479" s="80">
+        <v>1606751999</v>
+      </c>
+      <c r="AG479" s="80">
+        <v>1</v>
+      </c>
+      <c r="AH479" s="80">
+        <v>1</v>
+      </c>
+      <c r="AK479" s="80">
+        <v>1</v>
+      </c>
+      <c r="AL479" s="80">
         <v>1</v>
       </c>
     </row>
